--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2014.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2014.xlsx
@@ -3,340 +3,343 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t>0192
+    <t xml:space="preserve">0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t>0280
+    <t xml:space="preserve">0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t>0580
+    <t xml:space="preserve">0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t>0680
+    <t xml:space="preserve">0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t>0791
+    <t xml:space="preserve">0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t>0792
+    <t xml:space="preserve">0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t>1091
+    <t xml:space="preserve">1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t>1092
+    <t xml:space="preserve">1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t>1093
+    <t xml:space="preserve">1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t>1100
+    <t xml:space="preserve">1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t>1200
+    <t xml:space="preserve">1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t>1300
+    <t xml:space="preserve">1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t>1400
+    <t xml:space="preserve">1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t>1500
+    <t xml:space="preserve">1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t>1600
+    <t xml:space="preserve">1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t>1700
+    <t xml:space="preserve">1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t>1800
+    <t xml:space="preserve">1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t>1991
+    <t xml:space="preserve">1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t>1992
+    <t xml:space="preserve">1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t>2091
+    <t xml:space="preserve">2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t>2092
+    <t xml:space="preserve">2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t>2093
+    <t xml:space="preserve">2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t>2100
+    <t xml:space="preserve">2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t>2200
+    <t xml:space="preserve">2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t>2300
+    <t xml:space="preserve">2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t>2491
+    <t xml:space="preserve">2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>2492
+    <t xml:space="preserve">2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t>2500
+    <t xml:space="preserve">2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t>2600
+    <t xml:space="preserve">2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t>2700
+    <t xml:space="preserve">2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t>2800
+    <t xml:space="preserve">2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t>2991
+    <t xml:space="preserve">2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t>2992
+    <t xml:space="preserve">2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t>3000
+    <t xml:space="preserve">3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t>3180
+    <t xml:space="preserve">3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t>3300
+    <t xml:space="preserve">3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t>3500
+    <t xml:space="preserve">3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t>3680
+    <t xml:space="preserve">3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t>4180
+    <t xml:space="preserve">4180
 Construção</t>
   </si>
   <si>
-    <t>4500
+    <t xml:space="preserve">4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t>4680
+    <t xml:space="preserve">4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t>4900
+    <t xml:space="preserve">4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t>5000
+    <t xml:space="preserve">5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t>5100
+    <t xml:space="preserve">5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t>5280
+    <t xml:space="preserve">5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t>5500
+    <t xml:space="preserve">5500
 Alojamento</t>
   </si>
   <si>
-    <t>5600
+    <t xml:space="preserve">5600
 Alimentação</t>
   </si>
   <si>
-    <t>5800
+    <t xml:space="preserve">5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t>5980
+    <t xml:space="preserve">5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t>6100
+    <t xml:space="preserve">6100
 Telecomunicações</t>
   </si>
   <si>
-    <t>6280
+    <t xml:space="preserve">6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t>6480
+    <t xml:space="preserve">6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t>6800
+    <t xml:space="preserve">6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t>6980
+    <t xml:space="preserve">6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t>7180
+    <t xml:space="preserve">7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t>7380
+    <t xml:space="preserve">7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t>7700
+    <t xml:space="preserve">7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t>7880
+    <t xml:space="preserve">7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>8000
+    <t xml:space="preserve">8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t>8400
+    <t xml:space="preserve">8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t>8591
+    <t xml:space="preserve">8591
 Educação pública</t>
   </si>
   <si>
-    <t>8592
+    <t xml:space="preserve">8592
 Educação privada</t>
   </si>
   <si>
-    <t>8691
+    <t xml:space="preserve">8691
 Saúde pública</t>
   </si>
   <si>
-    <t>8692
+    <t xml:space="preserve">8692
 Saúde privada</t>
   </si>
   <si>
-    <t>9080
+    <t xml:space="preserve">9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t>9480
+    <t xml:space="preserve">9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t>9700
+    <t xml:space="preserve">9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remunerações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -365,3151 +368,3435 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>159111.0</v>
+        <v>159111</v>
       </c>
       <c r="C2" t="n">
-        <v>67178.0</v>
+        <v>67178</v>
       </c>
       <c r="D2" t="n">
-        <v>23686.0</v>
+        <v>23686</v>
       </c>
       <c r="E2" t="n">
-        <v>8845.0</v>
+        <v>8845</v>
       </c>
       <c r="F2" t="n">
-        <v>129598.0</v>
+        <v>129598</v>
       </c>
       <c r="G2" t="n">
-        <v>44174.0</v>
+        <v>44174</v>
       </c>
       <c r="H2" t="n">
-        <v>2180.0</v>
+        <v>2180</v>
       </c>
       <c r="I2" t="n">
-        <v>34403.0</v>
+        <v>34403</v>
       </c>
       <c r="J2" t="n">
-        <v>6829.0</v>
+        <v>6829</v>
       </c>
       <c r="K2" t="n">
-        <v>46921.0</v>
+        <v>46921</v>
       </c>
       <c r="L2" t="n">
-        <v>20923.0</v>
+        <v>20923</v>
       </c>
       <c r="M2" t="n">
-        <v>5105.0</v>
+        <v>5105</v>
       </c>
       <c r="N2" t="n">
-        <v>15156.0</v>
+        <v>15156</v>
       </c>
       <c r="O2" t="n">
-        <v>25914.0</v>
+        <v>25914</v>
       </c>
       <c r="P2" t="n">
-        <v>14042.0</v>
+        <v>14042</v>
       </c>
       <c r="Q2" t="n">
-        <v>11364.0</v>
+        <v>11364</v>
       </c>
       <c r="R2" t="n">
-        <v>19316.0</v>
+        <v>19316</v>
       </c>
       <c r="S2" t="n">
-        <v>9140.0</v>
+        <v>9140</v>
       </c>
       <c r="T2" t="n">
-        <v>-16729.0</v>
+        <v>-16729</v>
       </c>
       <c r="U2" t="n">
-        <v>7305.0</v>
+        <v>7305</v>
       </c>
       <c r="V2" t="n">
-        <v>18734.0</v>
+        <v>18734</v>
       </c>
       <c r="W2" t="n">
-        <v>14877.0</v>
+        <v>14877</v>
       </c>
       <c r="X2" t="n">
-        <v>7975.0</v>
+        <v>7975</v>
       </c>
       <c r="Y2" t="n">
-        <v>25412.0</v>
+        <v>25412</v>
       </c>
       <c r="Z2" t="n">
-        <v>27998.0</v>
+        <v>27998</v>
       </c>
       <c r="AA2" t="n">
-        <v>30994.0</v>
+        <v>30994</v>
       </c>
       <c r="AB2" t="n">
-        <v>30190.0</v>
+        <v>30190</v>
       </c>
       <c r="AC2" t="n">
-        <v>10281.0</v>
+        <v>10281</v>
       </c>
       <c r="AD2" t="n">
-        <v>35496.0</v>
+        <v>35496</v>
       </c>
       <c r="AE2" t="n">
-        <v>16311.0</v>
+        <v>16311</v>
       </c>
       <c r="AF2" t="n">
-        <v>18036.0</v>
+        <v>18036</v>
       </c>
       <c r="AG2" t="n">
-        <v>41801.0</v>
+        <v>41801</v>
       </c>
       <c r="AH2" t="n">
-        <v>27371.0</v>
+        <v>27371</v>
       </c>
       <c r="AI2" t="n">
-        <v>23138.0</v>
+        <v>23138</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11968.0</v>
+        <v>11968</v>
       </c>
       <c r="AK2" t="n">
-        <v>32956.0</v>
+        <v>32956</v>
       </c>
       <c r="AL2" t="n">
-        <v>24149.0</v>
+        <v>24149</v>
       </c>
       <c r="AM2" t="n">
-        <v>56222.0</v>
+        <v>56222</v>
       </c>
       <c r="AN2" t="n">
-        <v>37753.0</v>
+        <v>37753</v>
       </c>
       <c r="AO2" t="n">
-        <v>306946.0</v>
+        <v>306946</v>
       </c>
       <c r="AP2" t="n">
-        <v>89526.0</v>
+        <v>89526</v>
       </c>
       <c r="AQ2" t="n">
-        <v>587036.0</v>
+        <v>587036</v>
       </c>
       <c r="AR2" t="n">
-        <v>148027.0</v>
+        <v>148027</v>
       </c>
       <c r="AS2" t="n">
-        <v>7347.0</v>
+        <v>7347</v>
       </c>
       <c r="AT2" t="n">
-        <v>9108.0</v>
+        <v>9108</v>
       </c>
       <c r="AU2" t="n">
-        <v>63275.0</v>
+        <v>63275</v>
       </c>
       <c r="AV2" t="n">
-        <v>14435.0</v>
+        <v>14435</v>
       </c>
       <c r="AW2" t="n">
-        <v>110497.0</v>
+        <v>110497</v>
       </c>
       <c r="AX2" t="n">
-        <v>9194.0</v>
+        <v>9194</v>
       </c>
       <c r="AY2" t="n">
-        <v>19032.0</v>
+        <v>19032</v>
       </c>
       <c r="AZ2" t="n">
-        <v>63318.0</v>
+        <v>63318</v>
       </c>
       <c r="BA2" t="n">
-        <v>77066.0</v>
+        <v>77066</v>
       </c>
       <c r="BB2" t="n">
-        <v>318680.0</v>
+        <v>318680</v>
       </c>
       <c r="BC2" t="n">
-        <v>463781.0</v>
+        <v>463781</v>
       </c>
       <c r="BD2" t="n">
-        <v>119287.0</v>
+        <v>119287</v>
       </c>
       <c r="BE2" t="n">
-        <v>46499.0</v>
+        <v>46499</v>
       </c>
       <c r="BF2" t="n">
-        <v>30620.0</v>
+        <v>30620</v>
       </c>
       <c r="BG2" t="n">
-        <v>31428.0</v>
+        <v>31428</v>
       </c>
       <c r="BH2" t="n">
-        <v>142777.0</v>
+        <v>142777</v>
       </c>
       <c r="BI2" t="n">
-        <v>31180.0</v>
+        <v>31180</v>
       </c>
       <c r="BJ2" t="n">
-        <v>474773.0</v>
+        <v>474773</v>
       </c>
       <c r="BK2" t="n">
-        <v>231854.0</v>
+        <v>231854</v>
       </c>
       <c r="BL2" t="n">
-        <v>68794.0</v>
+        <v>68794</v>
       </c>
       <c r="BM2" t="n">
-        <v>110181.0</v>
+        <v>110181</v>
       </c>
       <c r="BN2" t="n">
-        <v>122447.0</v>
+        <v>122447</v>
       </c>
       <c r="BO2" t="n">
-        <v>19749.0</v>
+        <v>19749</v>
       </c>
       <c r="BP2" t="n">
-        <v>71590.0</v>
+        <v>71590</v>
       </c>
       <c r="BQ2" t="n">
-        <v>58164.0</v>
+        <v>58164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>25278.0</v>
+        <v>25278</v>
       </c>
       <c r="C3" t="n">
-        <v>20702.0</v>
+        <v>20702</v>
       </c>
       <c r="D3" t="n">
-        <v>2220.0</v>
+        <v>2220</v>
       </c>
       <c r="E3" t="n">
-        <v>4117.0</v>
+        <v>4117</v>
       </c>
       <c r="F3" t="n">
-        <v>22953.0</v>
+        <v>22953</v>
       </c>
       <c r="G3" t="n">
-        <v>6294.0</v>
+        <v>6294</v>
       </c>
       <c r="H3" t="n">
-        <v>2044.0</v>
+        <v>2044</v>
       </c>
       <c r="I3" t="n">
-        <v>23618.0</v>
+        <v>23618</v>
       </c>
       <c r="J3" t="n">
-        <v>9100.0</v>
+        <v>9100</v>
       </c>
       <c r="K3" t="n">
-        <v>27109.0</v>
+        <v>27109</v>
       </c>
       <c r="L3" t="n">
-        <v>7770.0</v>
+        <v>7770</v>
       </c>
       <c r="M3" t="n">
-        <v>1542.0</v>
+        <v>1542</v>
       </c>
       <c r="N3" t="n">
-        <v>9971.0</v>
+        <v>9971</v>
       </c>
       <c r="O3" t="n">
-        <v>17933.0</v>
+        <v>17933</v>
       </c>
       <c r="P3" t="n">
-        <v>9450.0</v>
+        <v>9450</v>
       </c>
       <c r="Q3" t="n">
-        <v>6126.0</v>
+        <v>6126</v>
       </c>
       <c r="R3" t="n">
-        <v>10791.0</v>
+        <v>10791</v>
       </c>
       <c r="S3" t="n">
-        <v>5205.0</v>
+        <v>5205</v>
       </c>
       <c r="T3" t="n">
-        <v>6861.0</v>
+        <v>6861</v>
       </c>
       <c r="U3" t="n">
-        <v>5417.0</v>
+        <v>5417</v>
       </c>
       <c r="V3" t="n">
-        <v>10299.0</v>
+        <v>10299</v>
       </c>
       <c r="W3" t="n">
-        <v>8316.0</v>
+        <v>8316</v>
       </c>
       <c r="X3" t="n">
-        <v>5165.0</v>
+        <v>5165</v>
       </c>
       <c r="Y3" t="n">
-        <v>10127.0</v>
+        <v>10127</v>
       </c>
       <c r="Z3" t="n">
-        <v>20451.0</v>
+        <v>20451</v>
       </c>
       <c r="AA3" t="n">
-        <v>19206.0</v>
+        <v>19206</v>
       </c>
       <c r="AB3" t="n">
-        <v>12921.0</v>
+        <v>12921</v>
       </c>
       <c r="AC3" t="n">
-        <v>6245.0</v>
+        <v>6245</v>
       </c>
       <c r="AD3" t="n">
-        <v>23053.0</v>
+        <v>23053</v>
       </c>
       <c r="AE3" t="n">
-        <v>10456.0</v>
+        <v>10456</v>
       </c>
       <c r="AF3" t="n">
-        <v>13966.0</v>
+        <v>13966</v>
       </c>
       <c r="AG3" t="n">
-        <v>29000.0</v>
+        <v>29000</v>
       </c>
       <c r="AH3" t="n">
-        <v>20537.0</v>
+        <v>20537</v>
       </c>
       <c r="AI3" t="n">
-        <v>19211.0</v>
+        <v>19211</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9614.0</v>
+        <v>9614</v>
       </c>
       <c r="AK3" t="n">
-        <v>14683.0</v>
+        <v>14683</v>
       </c>
       <c r="AL3" t="n">
-        <v>12060.0</v>
+        <v>12060</v>
       </c>
       <c r="AM3" t="n">
-        <v>15551.0</v>
+        <v>15551</v>
       </c>
       <c r="AN3" t="n">
-        <v>15494.0</v>
+        <v>15494</v>
       </c>
       <c r="AO3" t="n">
-        <v>136103.0</v>
+        <v>136103</v>
       </c>
       <c r="AP3" t="n">
-        <v>41437.0</v>
+        <v>41437</v>
       </c>
       <c r="AQ3" t="n">
-        <v>275670.0</v>
+        <v>275670</v>
       </c>
       <c r="AR3" t="n">
-        <v>74838.0</v>
+        <v>74838</v>
       </c>
       <c r="AS3" t="n">
-        <v>4492.0</v>
+        <v>4492</v>
       </c>
       <c r="AT3" t="n">
-        <v>6752.0</v>
+        <v>6752</v>
       </c>
       <c r="AU3" t="n">
-        <v>37346.0</v>
+        <v>37346</v>
       </c>
       <c r="AV3" t="n">
-        <v>8915.0</v>
+        <v>8915</v>
       </c>
       <c r="AW3" t="n">
-        <v>43571.0</v>
+        <v>43571</v>
       </c>
       <c r="AX3" t="n">
-        <v>6651.0</v>
+        <v>6651</v>
       </c>
       <c r="AY3" t="n">
-        <v>9604.0</v>
+        <v>9604</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16891.0</v>
+        <v>16891</v>
       </c>
       <c r="BA3" t="n">
-        <v>40900.0</v>
+        <v>40900</v>
       </c>
       <c r="BB3" t="n">
-        <v>128519.0</v>
+        <v>128519</v>
       </c>
       <c r="BC3" t="n">
-        <v>5928.0</v>
+        <v>5928</v>
       </c>
       <c r="BD3" t="n">
-        <v>48760.0</v>
+        <v>48760</v>
       </c>
       <c r="BE3" t="n">
-        <v>23042.0</v>
+        <v>23042</v>
       </c>
       <c r="BF3" t="n">
-        <v>11292.0</v>
+        <v>11292</v>
       </c>
       <c r="BG3" t="n">
-        <v>10159.0</v>
+        <v>10159</v>
       </c>
       <c r="BH3" t="n">
-        <v>91223.0</v>
+        <v>91223</v>
       </c>
       <c r="BI3" t="n">
-        <v>26652.0</v>
+        <v>26652</v>
       </c>
       <c r="BJ3" t="n">
-        <v>411388.0</v>
+        <v>411388</v>
       </c>
       <c r="BK3" t="n">
-        <v>221910.0</v>
+        <v>221910</v>
       </c>
       <c r="BL3" t="n">
-        <v>61383.0</v>
+        <v>61383</v>
       </c>
       <c r="BM3" t="n">
-        <v>105307.0</v>
+        <v>105307</v>
       </c>
       <c r="BN3" t="n">
-        <v>58533.0</v>
+        <v>58533</v>
       </c>
       <c r="BO3" t="n">
-        <v>9689.0</v>
+        <v>9689</v>
       </c>
       <c r="BP3" t="n">
-        <v>39394.0</v>
+        <v>39394</v>
       </c>
       <c r="BQ3" t="n">
-        <v>58164.0</v>
+        <v>58164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
-        <v>21476.0</v>
+        <v>21476</v>
       </c>
       <c r="C4" t="n">
-        <v>17868.0</v>
+        <v>17868</v>
       </c>
       <c r="D4" t="n">
-        <v>1901.0</v>
+        <v>1901</v>
       </c>
       <c r="E4" t="n">
-        <v>3229.0</v>
+        <v>3229</v>
       </c>
       <c r="F4" t="n">
-        <v>17029.0</v>
+        <v>17029</v>
       </c>
       <c r="G4" t="n">
-        <v>4840.0</v>
+        <v>4840</v>
       </c>
       <c r="H4" t="n">
-        <v>1639.0</v>
+        <v>1639</v>
       </c>
       <c r="I4" t="n">
-        <v>18290.0</v>
+        <v>18290</v>
       </c>
       <c r="J4" t="n">
-        <v>6762.0</v>
+        <v>6762</v>
       </c>
       <c r="K4" t="n">
-        <v>21637.0</v>
+        <v>21637</v>
       </c>
       <c r="L4" t="n">
-        <v>6092.0</v>
+        <v>6092</v>
       </c>
       <c r="M4" t="n">
-        <v>1192.0</v>
+        <v>1192</v>
       </c>
       <c r="N4" t="n">
-        <v>8200.0</v>
+        <v>8200</v>
       </c>
       <c r="O4" t="n">
-        <v>14529.0</v>
+        <v>14529</v>
       </c>
       <c r="P4" t="n">
-        <v>7852.0</v>
+        <v>7852</v>
       </c>
       <c r="Q4" t="n">
-        <v>5082.0</v>
+        <v>5082</v>
       </c>
       <c r="R4" t="n">
-        <v>8489.0</v>
+        <v>8489</v>
       </c>
       <c r="S4" t="n">
-        <v>4187.0</v>
+        <v>4187</v>
       </c>
       <c r="T4" t="n">
-        <v>4976.0</v>
+        <v>4976</v>
       </c>
       <c r="U4" t="n">
-        <v>4185.0</v>
+        <v>4185</v>
       </c>
       <c r="V4" t="n">
-        <v>7873.0</v>
+        <v>7873</v>
       </c>
       <c r="W4" t="n">
-        <v>6310.0</v>
+        <v>6310</v>
       </c>
       <c r="X4" t="n">
-        <v>4036.0</v>
+        <v>4036</v>
       </c>
       <c r="Y4" t="n">
-        <v>7736.0</v>
+        <v>7736</v>
       </c>
       <c r="Z4" t="n">
-        <v>16076.0</v>
+        <v>16076</v>
       </c>
       <c r="AA4" t="n">
-        <v>15621.0</v>
+        <v>15621</v>
       </c>
       <c r="AB4" t="n">
-        <v>9779.0</v>
+        <v>9779</v>
       </c>
       <c r="AC4" t="n">
-        <v>4831.0</v>
+        <v>4831</v>
       </c>
       <c r="AD4" t="n">
-        <v>18404.0</v>
+        <v>18404</v>
       </c>
       <c r="AE4" t="n">
-        <v>8347.0</v>
+        <v>8347</v>
       </c>
       <c r="AF4" t="n">
-        <v>11025.0</v>
+        <v>11025</v>
       </c>
       <c r="AG4" t="n">
-        <v>22798.0</v>
+        <v>22798</v>
       </c>
       <c r="AH4" t="n">
-        <v>15923.0</v>
+        <v>15923</v>
       </c>
       <c r="AI4" t="n">
-        <v>15588.0</v>
+        <v>15588</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8026.0</v>
+        <v>8026</v>
       </c>
       <c r="AK4" t="n">
-        <v>12061.0</v>
+        <v>12061</v>
       </c>
       <c r="AL4" t="n">
-        <v>9808.0</v>
+        <v>9808</v>
       </c>
       <c r="AM4" t="n">
-        <v>11254.0</v>
+        <v>11254</v>
       </c>
       <c r="AN4" t="n">
-        <v>11968.0</v>
+        <v>11968</v>
       </c>
       <c r="AO4" t="n">
-        <v>110800.0</v>
+        <v>110800</v>
       </c>
       <c r="AP4" t="n">
-        <v>33812.0</v>
+        <v>33812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>219234.0</v>
+        <v>219234</v>
       </c>
       <c r="AR4" t="n">
-        <v>60486.0</v>
+        <v>60486</v>
       </c>
       <c r="AS4" t="n">
-        <v>3710.0</v>
+        <v>3710</v>
       </c>
       <c r="AT4" t="n">
-        <v>5616.0</v>
+        <v>5616</v>
       </c>
       <c r="AU4" t="n">
-        <v>29460.0</v>
+        <v>29460</v>
       </c>
       <c r="AV4" t="n">
-        <v>7504.0</v>
+        <v>7504</v>
       </c>
       <c r="AW4" t="n">
-        <v>36297.0</v>
+        <v>36297</v>
       </c>
       <c r="AX4" t="n">
-        <v>5221.0</v>
+        <v>5221</v>
       </c>
       <c r="AY4" t="n">
-        <v>8012.0</v>
+        <v>8012</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13158.0</v>
+        <v>13158</v>
       </c>
       <c r="BA4" t="n">
-        <v>33445.0</v>
+        <v>33445</v>
       </c>
       <c r="BB4" t="n">
-        <v>97930.0</v>
+        <v>97930</v>
       </c>
       <c r="BC4" t="n">
-        <v>4654.0</v>
+        <v>4654</v>
       </c>
       <c r="BD4" t="n">
-        <v>39042.0</v>
+        <v>39042</v>
       </c>
       <c r="BE4" t="n">
-        <v>18629.0</v>
+        <v>18629</v>
       </c>
       <c r="BF4" t="n">
-        <v>9120.0</v>
+        <v>9120</v>
       </c>
       <c r="BG4" t="n">
-        <v>8092.0</v>
+        <v>8092</v>
       </c>
       <c r="BH4" t="n">
-        <v>72578.0</v>
+        <v>72578</v>
       </c>
       <c r="BI4" t="n">
-        <v>20843.0</v>
+        <v>20843</v>
       </c>
       <c r="BJ4" t="n">
-        <v>292588.0</v>
+        <v>292588</v>
       </c>
       <c r="BK4" t="n">
-        <v>188808.0</v>
+        <v>188808</v>
       </c>
       <c r="BL4" t="n">
-        <v>52012.0</v>
+        <v>52012</v>
       </c>
       <c r="BM4" t="n">
-        <v>84523.0</v>
+        <v>84523</v>
       </c>
       <c r="BN4" t="n">
-        <v>51025.0</v>
+        <v>51025</v>
       </c>
       <c r="BO4" t="n">
-        <v>8203.0</v>
+        <v>8203</v>
       </c>
       <c r="BP4" t="n">
-        <v>33498.0</v>
+        <v>33498</v>
       </c>
       <c r="BQ4" t="n">
-        <v>55190.0</v>
+        <v>55190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>3802.0</v>
+        <v>3802</v>
       </c>
       <c r="C5" t="n">
-        <v>2834.0</v>
+        <v>2834</v>
       </c>
       <c r="D5" t="n">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="E5" t="n">
-        <v>888.0</v>
+        <v>888</v>
       </c>
       <c r="F5" t="n">
-        <v>5924.0</v>
+        <v>5924</v>
       </c>
       <c r="G5" t="n">
-        <v>1454.0</v>
+        <v>1454</v>
       </c>
       <c r="H5" t="n">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="I5" t="n">
-        <v>5328.0</v>
+        <v>5328</v>
       </c>
       <c r="J5" t="n">
-        <v>2338.0</v>
+        <v>2338</v>
       </c>
       <c r="K5" t="n">
-        <v>5472.0</v>
+        <v>5472</v>
       </c>
       <c r="L5" t="n">
-        <v>1678.0</v>
+        <v>1678</v>
       </c>
       <c r="M5" t="n">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="N5" t="n">
-        <v>1771.0</v>
+        <v>1771</v>
       </c>
       <c r="O5" t="n">
-        <v>3404.0</v>
+        <v>3404</v>
       </c>
       <c r="P5" t="n">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="Q5" t="n">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="R5" t="n">
-        <v>2302.0</v>
+        <v>2302</v>
       </c>
       <c r="S5" t="n">
-        <v>1018.0</v>
+        <v>1018</v>
       </c>
       <c r="T5" t="n">
-        <v>1885.0</v>
+        <v>1885</v>
       </c>
       <c r="U5" t="n">
-        <v>1232.0</v>
+        <v>1232</v>
       </c>
       <c r="V5" t="n">
-        <v>2426.0</v>
+        <v>2426</v>
       </c>
       <c r="W5" t="n">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="X5" t="n">
-        <v>1129.0</v>
+        <v>1129</v>
       </c>
       <c r="Y5" t="n">
-        <v>2391.0</v>
+        <v>2391</v>
       </c>
       <c r="Z5" t="n">
-        <v>4375.0</v>
+        <v>4375</v>
       </c>
       <c r="AA5" t="n">
-        <v>3585.0</v>
+        <v>3585</v>
       </c>
       <c r="AB5" t="n">
-        <v>3142.0</v>
+        <v>3142</v>
       </c>
       <c r="AC5" t="n">
-        <v>1414.0</v>
+        <v>1414</v>
       </c>
       <c r="AD5" t="n">
-        <v>4649.0</v>
+        <v>4649</v>
       </c>
       <c r="AE5" t="n">
-        <v>2109.0</v>
+        <v>2109</v>
       </c>
       <c r="AF5" t="n">
-        <v>2941.0</v>
+        <v>2941</v>
       </c>
       <c r="AG5" t="n">
-        <v>6202.0</v>
+        <v>6202</v>
       </c>
       <c r="AH5" t="n">
-        <v>4614.0</v>
+        <v>4614</v>
       </c>
       <c r="AI5" t="n">
-        <v>3623.0</v>
+        <v>3623</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1588.0</v>
+        <v>1588</v>
       </c>
       <c r="AK5" t="n">
-        <v>2622.0</v>
+        <v>2622</v>
       </c>
       <c r="AL5" t="n">
-        <v>2252.0</v>
+        <v>2252</v>
       </c>
       <c r="AM5" t="n">
-        <v>4297.0</v>
+        <v>4297</v>
       </c>
       <c r="AN5" t="n">
-        <v>3526.0</v>
+        <v>3526</v>
       </c>
       <c r="AO5" t="n">
-        <v>25303.0</v>
+        <v>25303</v>
       </c>
       <c r="AP5" t="n">
-        <v>7625.0</v>
+        <v>7625</v>
       </c>
       <c r="AQ5" t="n">
-        <v>56436.0</v>
+        <v>56436</v>
       </c>
       <c r="AR5" t="n">
-        <v>14352.0</v>
+        <v>14352</v>
       </c>
       <c r="AS5" t="n">
-        <v>782.0</v>
+        <v>782</v>
       </c>
       <c r="AT5" t="n">
-        <v>1136.0</v>
+        <v>1136</v>
       </c>
       <c r="AU5" t="n">
-        <v>7886.0</v>
+        <v>7886</v>
       </c>
       <c r="AV5" t="n">
-        <v>1411.0</v>
+        <v>1411</v>
       </c>
       <c r="AW5" t="n">
-        <v>7274.0</v>
+        <v>7274</v>
       </c>
       <c r="AX5" t="n">
-        <v>1430.0</v>
+        <v>1430</v>
       </c>
       <c r="AY5" t="n">
-        <v>1592.0</v>
+        <v>1592</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3733.0</v>
+        <v>3733</v>
       </c>
       <c r="BA5" t="n">
-        <v>7455.0</v>
+        <v>7455</v>
       </c>
       <c r="BB5" t="n">
-        <v>30589.0</v>
+        <v>30589</v>
       </c>
       <c r="BC5" t="n">
-        <v>1274.0</v>
+        <v>1274</v>
       </c>
       <c r="BD5" t="n">
-        <v>9718.0</v>
+        <v>9718</v>
       </c>
       <c r="BE5" t="n">
-        <v>4413.0</v>
+        <v>4413</v>
       </c>
       <c r="BF5" t="n">
-        <v>2172.0</v>
+        <v>2172</v>
       </c>
       <c r="BG5" t="n">
-        <v>2067.0</v>
+        <v>2067</v>
       </c>
       <c r="BH5" t="n">
-        <v>18645.0</v>
+        <v>18645</v>
       </c>
       <c r="BI5" t="n">
-        <v>5809.0</v>
+        <v>5809</v>
       </c>
       <c r="BJ5" t="n">
-        <v>57215.0</v>
+        <v>57215</v>
       </c>
       <c r="BK5" t="n">
-        <v>30285.0</v>
+        <v>30285</v>
       </c>
       <c r="BL5" t="n">
-        <v>9371.0</v>
+        <v>9371</v>
       </c>
       <c r="BM5" t="n">
-        <v>15476.0</v>
+        <v>15476</v>
       </c>
       <c r="BN5" t="n">
-        <v>7508.0</v>
+        <v>7508</v>
       </c>
       <c r="BO5" t="n">
-        <v>1486.0</v>
+        <v>1486</v>
       </c>
       <c r="BP5" t="n">
-        <v>5896.0</v>
+        <v>5896</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2974.0</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="n">
-        <v>3789.0</v>
+        <v>3789</v>
       </c>
       <c r="C6" t="n">
-        <v>2832.0</v>
+        <v>2832</v>
       </c>
       <c r="D6" t="n">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="E6" t="n">
-        <v>869.0</v>
+        <v>869</v>
       </c>
       <c r="F6" t="n">
-        <v>4822.0</v>
+        <v>4822</v>
       </c>
       <c r="G6" t="n">
-        <v>1387.0</v>
+        <v>1387</v>
       </c>
       <c r="H6" t="n">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="I6" t="n">
-        <v>5218.0</v>
+        <v>5218</v>
       </c>
       <c r="J6" t="n">
-        <v>2292.0</v>
+        <v>2292</v>
       </c>
       <c r="K6" t="n">
-        <v>5270.0</v>
+        <v>5270</v>
       </c>
       <c r="L6" t="n">
-        <v>1637.0</v>
+        <v>1637</v>
       </c>
       <c r="M6" t="n">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.0</v>
+        <v>1748</v>
       </c>
       <c r="O6" t="n">
-        <v>3376.0</v>
+        <v>3376</v>
       </c>
       <c r="P6" t="n">
-        <v>1577.0</v>
+        <v>1577</v>
       </c>
       <c r="Q6" t="n">
-        <v>996.0</v>
+        <v>996</v>
       </c>
       <c r="R6" t="n">
-        <v>2060.0</v>
+        <v>2060</v>
       </c>
       <c r="S6" t="n">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="T6" t="n">
-        <v>1414.0</v>
+        <v>1414</v>
       </c>
       <c r="U6" t="n">
-        <v>1161.0</v>
+        <v>1161</v>
       </c>
       <c r="V6" t="n">
-        <v>2260.0</v>
+        <v>2260</v>
       </c>
       <c r="W6" t="n">
-        <v>1830.0</v>
+        <v>1830</v>
       </c>
       <c r="X6" t="n">
-        <v>1098.0</v>
+        <v>1098</v>
       </c>
       <c r="Y6" t="n">
-        <v>2180.0</v>
+        <v>2180</v>
       </c>
       <c r="Z6" t="n">
-        <v>4277.0</v>
+        <v>4277</v>
       </c>
       <c r="AA6" t="n">
-        <v>3446.0</v>
+        <v>3446</v>
       </c>
       <c r="AB6" t="n">
-        <v>2953.0</v>
+        <v>2953</v>
       </c>
       <c r="AC6" t="n">
-        <v>1335.0</v>
+        <v>1335</v>
       </c>
       <c r="AD6" t="n">
-        <v>4408.0</v>
+        <v>4408</v>
       </c>
       <c r="AE6" t="n">
-        <v>2059.0</v>
+        <v>2059</v>
       </c>
       <c r="AF6" t="n">
-        <v>2849.0</v>
+        <v>2849</v>
       </c>
       <c r="AG6" t="n">
-        <v>5821.0</v>
+        <v>5821</v>
       </c>
       <c r="AH6" t="n">
-        <v>4379.0</v>
+        <v>4379</v>
       </c>
       <c r="AI6" t="n">
-        <v>3536.0</v>
+        <v>3536</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1501.0</v>
+        <v>1501</v>
       </c>
       <c r="AK6" t="n">
-        <v>2479.0</v>
+        <v>2479</v>
       </c>
       <c r="AL6" t="n">
-        <v>2136.0</v>
+        <v>2136</v>
       </c>
       <c r="AM6" t="n">
-        <v>3522.0</v>
+        <v>3522</v>
       </c>
       <c r="AN6" t="n">
-        <v>3299.0</v>
+        <v>3299</v>
       </c>
       <c r="AO6" t="n">
-        <v>24643.0</v>
+        <v>24643</v>
       </c>
       <c r="AP6" t="n">
-        <v>7577.0</v>
+        <v>7577</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55801.0</v>
+        <v>55801</v>
       </c>
       <c r="AR6" t="n">
-        <v>14071.0</v>
+        <v>14071</v>
       </c>
       <c r="AS6" t="n">
-        <v>751.0</v>
+        <v>751</v>
       </c>
       <c r="AT6" t="n">
-        <v>1059.0</v>
+        <v>1059</v>
       </c>
       <c r="AU6" t="n">
-        <v>7375.0</v>
+        <v>7375</v>
       </c>
       <c r="AV6" t="n">
-        <v>1395.0</v>
+        <v>1395</v>
       </c>
       <c r="AW6" t="n">
-        <v>7172.0</v>
+        <v>7172</v>
       </c>
       <c r="AX6" t="n">
-        <v>1315.0</v>
+        <v>1315</v>
       </c>
       <c r="AY6" t="n">
-        <v>1515.0</v>
+        <v>1515</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3595.0</v>
+        <v>3595</v>
       </c>
       <c r="BA6" t="n">
-        <v>7037.0</v>
+        <v>7037</v>
       </c>
       <c r="BB6" t="n">
-        <v>26346.0</v>
+        <v>26346</v>
       </c>
       <c r="BC6" t="n">
-        <v>1255.0</v>
+        <v>1255</v>
       </c>
       <c r="BD6" t="n">
-        <v>9080.0</v>
+        <v>9080</v>
       </c>
       <c r="BE6" t="n">
-        <v>4343.0</v>
+        <v>4343</v>
       </c>
       <c r="BF6" t="n">
-        <v>2134.0</v>
+        <v>2134</v>
       </c>
       <c r="BG6" t="n">
-        <v>2031.0</v>
+        <v>2031</v>
       </c>
       <c r="BH6" t="n">
-        <v>18423.0</v>
+        <v>18423</v>
       </c>
       <c r="BI6" t="n">
-        <v>5782.0</v>
+        <v>5782</v>
       </c>
       <c r="BJ6" t="n">
-        <v>56725.0</v>
+        <v>56725</v>
       </c>
       <c r="BK6" t="n">
-        <v>30229.0</v>
+        <v>30229</v>
       </c>
       <c r="BL6" t="n">
-        <v>9357.0</v>
+        <v>9357</v>
       </c>
       <c r="BM6" t="n">
-        <v>15456.0</v>
+        <v>15456</v>
       </c>
       <c r="BN6" t="n">
-        <v>7468.0</v>
+        <v>7468</v>
       </c>
       <c r="BO6" t="n">
-        <v>1459.0</v>
+        <v>1459</v>
       </c>
       <c r="BP6" t="n">
-        <v>5772.0</v>
+        <v>5772</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2974.0</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>1102.0</v>
+        <v>1102</v>
       </c>
       <c r="G7" t="n">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="H7" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="J7" t="n">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="K7" t="n">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="L7" t="n">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="M7" t="n">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="P7" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="R7" t="n">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="S7" t="n">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="T7" t="n">
-        <v>471.0</v>
+        <v>471</v>
       </c>
       <c r="U7" t="n">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="V7" t="n">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="W7" t="n">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="X7" t="n">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="Z7" t="n">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="n">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="AE7" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="n">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="n">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="AH7" t="n">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="AI7" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="AK7" t="n">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="AL7" t="n">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="AM7" t="n">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="AN7" t="n">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="AO7" t="n">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="AP7" t="n">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AQ7" t="n">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="AR7" t="n">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="AS7" t="n">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AT7" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="AU7" t="n">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="AV7" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AW7" t="n">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="AX7" t="n">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="AY7" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="AZ7" t="n">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="BA7" t="n">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="BB7" t="n">
-        <v>4243.0</v>
+        <v>4243</v>
       </c>
       <c r="BC7" t="n">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="BD7" t="n">
-        <v>638.0</v>
+        <v>638</v>
       </c>
       <c r="BE7" t="n">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="BF7" t="n">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="BG7" t="n">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="BH7" t="n">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="BI7" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="BJ7" t="n">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="BK7" t="n">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="BL7" t="n">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="BM7" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="BN7" t="n">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="BO7" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="BP7" t="n">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>61585.0</v>
+        <v>61585</v>
       </c>
       <c r="BK8" t="n">
-        <v>2817.0</v>
+        <v>2817</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5308.0</v>
+        <v>5308</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>141390.0</v>
+        <v>141390</v>
       </c>
       <c r="C9" t="n">
-        <v>46111.0</v>
+        <v>46111</v>
       </c>
       <c r="D9" t="n">
-        <v>21385.0</v>
+        <v>21385</v>
       </c>
       <c r="E9" t="n">
-        <v>4636.0</v>
+        <v>4636</v>
       </c>
       <c r="F9" t="n">
-        <v>105326.0</v>
+        <v>105326</v>
       </c>
       <c r="G9" t="n">
-        <v>37459.0</v>
+        <v>37459</v>
       </c>
       <c r="H9" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>9284.0</v>
+        <v>9284</v>
       </c>
       <c r="J9" t="n">
-        <v>-2738.0</v>
+        <v>-2738</v>
       </c>
       <c r="K9" t="n">
-        <v>18100.0</v>
+        <v>18100</v>
       </c>
       <c r="L9" t="n">
-        <v>12521.0</v>
+        <v>12521</v>
       </c>
       <c r="M9" t="n">
-        <v>3465.0</v>
+        <v>3465</v>
       </c>
       <c r="N9" t="n">
-        <v>4797.0</v>
+        <v>4797</v>
       </c>
       <c r="O9" t="n">
-        <v>7430.0</v>
+        <v>7430</v>
       </c>
       <c r="P9" t="n">
-        <v>4201.0</v>
+        <v>4201</v>
       </c>
       <c r="Q9" t="n">
-        <v>4994.0</v>
+        <v>4994</v>
       </c>
       <c r="R9" t="n">
-        <v>8065.0</v>
+        <v>8065</v>
       </c>
       <c r="S9" t="n">
-        <v>3692.0</v>
+        <v>3692</v>
       </c>
       <c r="T9" t="n">
-        <v>-24347.0</v>
+        <v>-24347</v>
       </c>
       <c r="U9" t="n">
-        <v>1751.0</v>
+        <v>1751</v>
       </c>
       <c r="V9" t="n">
-        <v>7647.0</v>
+        <v>7647</v>
       </c>
       <c r="W9" t="n">
-        <v>6082.0</v>
+        <v>6082</v>
       </c>
       <c r="X9" t="n">
-        <v>2516.0</v>
+        <v>2516</v>
       </c>
       <c r="Y9" t="n">
-        <v>14851.0</v>
+        <v>14851</v>
       </c>
       <c r="Z9" t="n">
-        <v>6788.0</v>
+        <v>6788</v>
       </c>
       <c r="AA9" t="n">
-        <v>11090.0</v>
+        <v>11090</v>
       </c>
       <c r="AB9" t="n">
-        <v>16579.0</v>
+        <v>16579</v>
       </c>
       <c r="AC9" t="n">
-        <v>3712.0</v>
+        <v>3712</v>
       </c>
       <c r="AD9" t="n">
-        <v>11603.0</v>
+        <v>11603</v>
       </c>
       <c r="AE9" t="n">
-        <v>5036.0</v>
+        <v>5036</v>
       </c>
       <c r="AF9" t="n">
-        <v>3534.0</v>
+        <v>3534</v>
       </c>
       <c r="AG9" t="n">
-        <v>11795.0</v>
+        <v>11795</v>
       </c>
       <c r="AH9" t="n">
-        <v>5891.0</v>
+        <v>5891</v>
       </c>
       <c r="AI9" t="n">
-        <v>3338.0</v>
+        <v>3338</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="AK9" t="n">
-        <v>17721.0</v>
+        <v>17721</v>
       </c>
       <c r="AL9" t="n">
-        <v>11718.0</v>
+        <v>11718</v>
       </c>
       <c r="AM9" t="n">
-        <v>39663.0</v>
+        <v>39663</v>
       </c>
       <c r="AN9" t="n">
-        <v>21703.0</v>
+        <v>21703</v>
       </c>
       <c r="AO9" t="n">
-        <v>167100.0</v>
+        <v>167100</v>
       </c>
       <c r="AP9" t="n">
-        <v>46965.0</v>
+        <v>46965</v>
       </c>
       <c r="AQ9" t="n">
-        <v>303612.0</v>
+        <v>303612</v>
       </c>
       <c r="AR9" t="n">
-        <v>72487.0</v>
+        <v>72487</v>
       </c>
       <c r="AS9" t="n">
-        <v>2521.0</v>
+        <v>2521</v>
       </c>
       <c r="AT9" t="n">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="AU9" t="n">
-        <v>24494.0</v>
+        <v>24494</v>
       </c>
       <c r="AV9" t="n">
-        <v>5217.0</v>
+        <v>5217</v>
       </c>
       <c r="AW9" t="n">
-        <v>65682.0</v>
+        <v>65682</v>
       </c>
       <c r="AX9" t="n">
-        <v>2308.0</v>
+        <v>2308</v>
       </c>
       <c r="AY9" t="n">
-        <v>7930.0</v>
+        <v>7930</v>
       </c>
       <c r="AZ9" t="n">
-        <v>42180.0</v>
+        <v>42180</v>
       </c>
       <c r="BA9" t="n">
-        <v>34816.0</v>
+        <v>34816</v>
       </c>
       <c r="BB9" t="n">
-        <v>183868.0</v>
+        <v>183868</v>
       </c>
       <c r="BC9" t="n">
-        <v>457547.0</v>
+        <v>457547</v>
       </c>
       <c r="BD9" t="n">
-        <v>68846.0</v>
+        <v>68846</v>
       </c>
       <c r="BE9" t="n">
-        <v>23265.0</v>
+        <v>23265</v>
       </c>
       <c r="BF9" t="n">
-        <v>18984.0</v>
+        <v>18984</v>
       </c>
       <c r="BG9" t="n">
-        <v>21024.0</v>
+        <v>21024</v>
       </c>
       <c r="BH9" t="n">
-        <v>49246.0</v>
+        <v>49246</v>
       </c>
       <c r="BI9" t="n">
-        <v>3722.0</v>
+        <v>3722</v>
       </c>
       <c r="BJ9" t="n">
-        <v>63266.0</v>
+        <v>63266</v>
       </c>
       <c r="BK9" t="n">
-        <v>9940.0</v>
+        <v>9940</v>
       </c>
       <c r="BL9" t="n">
-        <v>5571.0</v>
+        <v>5571</v>
       </c>
       <c r="BM9" t="n">
-        <v>4873.0</v>
+        <v>4873</v>
       </c>
       <c r="BN9" t="n">
-        <v>62075.0</v>
+        <v>62075</v>
       </c>
       <c r="BO9" t="n">
-        <v>9840.0</v>
+        <v>9840</v>
       </c>
       <c r="BP9" t="n">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>74667.0</v>
+        <v>74667</v>
       </c>
       <c r="C10" t="n">
-        <v>34921.0</v>
+        <v>34921</v>
       </c>
       <c r="D10" t="n">
-        <v>10514.0</v>
+        <v>10514</v>
       </c>
       <c r="E10" t="n">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3178.0</v>
+        <v>3178</v>
       </c>
       <c r="L10" t="n">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1331.0</v>
+        <v>1331</v>
       </c>
       <c r="O10" t="n">
-        <v>6053.0</v>
+        <v>6053</v>
       </c>
       <c r="P10" t="n">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="Q10" t="n">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="R10" t="n">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="S10" t="n">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="AA10" t="n">
-        <v>818.0</v>
+        <v>818</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2205.0</v>
+        <v>2205</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AJ10" t="n">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AK10" t="n">
-        <v>1531.0</v>
+        <v>1531</v>
       </c>
       <c r="AL10" t="n">
-        <v>4145.0</v>
+        <v>4145</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1677.0</v>
+        <v>1677</v>
       </c>
       <c r="AO10" t="n">
-        <v>74937.0</v>
+        <v>74937</v>
       </c>
       <c r="AP10" t="n">
-        <v>20226.0</v>
+        <v>20226</v>
       </c>
       <c r="AQ10" t="n">
-        <v>59750.0</v>
+        <v>59750</v>
       </c>
       <c r="AR10" t="n">
-        <v>22660.0</v>
+        <v>22660</v>
       </c>
       <c r="AS10" t="n">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1126.0</v>
+        <v>1126</v>
       </c>
       <c r="AV10" t="n">
-        <v>671.0</v>
+        <v>671</v>
       </c>
       <c r="AW10" t="n">
-        <v>32473.0</v>
+        <v>32473</v>
       </c>
       <c r="AX10" t="n">
-        <v>468.0</v>
+        <v>468</v>
       </c>
       <c r="AY10" t="n">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="AZ10" t="n">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="BA10" t="n">
-        <v>7715.0</v>
+        <v>7715</v>
       </c>
       <c r="BB10" t="n">
-        <v>2191.0</v>
+        <v>2191</v>
       </c>
       <c r="BC10" t="n">
-        <v>4734.0</v>
+        <v>4734</v>
       </c>
       <c r="BD10" t="n">
-        <v>27634.0</v>
+        <v>27634</v>
       </c>
       <c r="BE10" t="n">
-        <v>10400.0</v>
+        <v>10400</v>
       </c>
       <c r="BF10" t="n">
-        <v>5947.0</v>
+        <v>5947</v>
       </c>
       <c r="BG10" t="n">
-        <v>668.0</v>
+        <v>668</v>
       </c>
       <c r="BH10" t="n">
-        <v>5722.0</v>
+        <v>5722</v>
       </c>
       <c r="BI10" t="n">
-        <v>897.0</v>
+        <v>897</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>4839.0</v>
+        <v>4839</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>29006.0</v>
+        <v>29006</v>
       </c>
       <c r="BO10" t="n">
-        <v>6396.0</v>
+        <v>6396</v>
       </c>
       <c r="BP10" t="n">
-        <v>23569.0</v>
+        <v>23569</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>66723.0</v>
+        <v>66723</v>
       </c>
       <c r="C11" t="n">
-        <v>11190.0</v>
+        <v>11190</v>
       </c>
       <c r="D11" t="n">
-        <v>10871.0</v>
+        <v>10871</v>
       </c>
       <c r="E11" t="n">
-        <v>4346.0</v>
+        <v>4346</v>
       </c>
       <c r="F11" t="n">
-        <v>105326.0</v>
+        <v>105326</v>
       </c>
       <c r="G11" t="n">
-        <v>37459.0</v>
+        <v>37459</v>
       </c>
       <c r="H11" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
-        <v>8940.0</v>
+        <v>8940</v>
       </c>
       <c r="J11" t="n">
-        <v>-2738.0</v>
+        <v>-2738</v>
       </c>
       <c r="K11" t="n">
-        <v>14922.0</v>
+        <v>14922</v>
       </c>
       <c r="L11" t="n">
-        <v>12499.0</v>
+        <v>12499</v>
       </c>
       <c r="M11" t="n">
-        <v>3465.0</v>
+        <v>3465</v>
       </c>
       <c r="N11" t="n">
-        <v>3466.0</v>
+        <v>3466</v>
       </c>
       <c r="O11" t="n">
-        <v>1377.0</v>
+        <v>1377</v>
       </c>
       <c r="P11" t="n">
-        <v>3616.0</v>
+        <v>3616</v>
       </c>
       <c r="Q11" t="n">
-        <v>3399.0</v>
+        <v>3399</v>
       </c>
       <c r="R11" t="n">
-        <v>7793.0</v>
+        <v>7793</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.0</v>
+        <v>3234</v>
       </c>
       <c r="T11" t="n">
-        <v>-24347.0</v>
+        <v>-24347</v>
       </c>
       <c r="U11" t="n">
-        <v>1751.0</v>
+        <v>1751</v>
       </c>
       <c r="V11" t="n">
-        <v>7647.0</v>
+        <v>7647</v>
       </c>
       <c r="W11" t="n">
-        <v>6082.0</v>
+        <v>6082</v>
       </c>
       <c r="X11" t="n">
-        <v>2098.0</v>
+        <v>2098</v>
       </c>
       <c r="Y11" t="n">
-        <v>14851.0</v>
+        <v>14851</v>
       </c>
       <c r="Z11" t="n">
-        <v>6549.0</v>
+        <v>6549</v>
       </c>
       <c r="AA11" t="n">
-        <v>10272.0</v>
+        <v>10272</v>
       </c>
       <c r="AB11" t="n">
-        <v>16579.0</v>
+        <v>16579</v>
       </c>
       <c r="AC11" t="n">
-        <v>3706.0</v>
+        <v>3706</v>
       </c>
       <c r="AD11" t="n">
-        <v>9398.0</v>
+        <v>9398</v>
       </c>
       <c r="AE11" t="n">
-        <v>5036.0</v>
+        <v>5036</v>
       </c>
       <c r="AF11" t="n">
-        <v>3534.0</v>
+        <v>3534</v>
       </c>
       <c r="AG11" t="n">
-        <v>11795.0</v>
+        <v>11795</v>
       </c>
       <c r="AH11" t="n">
-        <v>5891.0</v>
+        <v>5891</v>
       </c>
       <c r="AI11" t="n">
-        <v>3285.0</v>
+        <v>3285</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1921.0</v>
+        <v>1921</v>
       </c>
       <c r="AK11" t="n">
-        <v>16190.0</v>
+        <v>16190</v>
       </c>
       <c r="AL11" t="n">
-        <v>7573.0</v>
+        <v>7573</v>
       </c>
       <c r="AM11" t="n">
-        <v>39663.0</v>
+        <v>39663</v>
       </c>
       <c r="AN11" t="n">
-        <v>20026.0</v>
+        <v>20026</v>
       </c>
       <c r="AO11" t="n">
-        <v>92163.0</v>
+        <v>92163</v>
       </c>
       <c r="AP11" t="n">
-        <v>26739.0</v>
+        <v>26739</v>
       </c>
       <c r="AQ11" t="n">
-        <v>243862.0</v>
+        <v>243862</v>
       </c>
       <c r="AR11" t="n">
-        <v>49827.0</v>
+        <v>49827</v>
       </c>
       <c r="AS11" t="n">
-        <v>2199.0</v>
+        <v>2199</v>
       </c>
       <c r="AT11" t="n">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="AU11" t="n">
-        <v>23368.0</v>
+        <v>23368</v>
       </c>
       <c r="AV11" t="n">
-        <v>4546.0</v>
+        <v>4546</v>
       </c>
       <c r="AW11" t="n">
-        <v>33209.0</v>
+        <v>33209</v>
       </c>
       <c r="AX11" t="n">
-        <v>1840.0</v>
+        <v>1840</v>
       </c>
       <c r="AY11" t="n">
-        <v>7141.0</v>
+        <v>7141</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41740.0</v>
+        <v>41740</v>
       </c>
       <c r="BA11" t="n">
-        <v>27101.0</v>
+        <v>27101</v>
       </c>
       <c r="BB11" t="n">
-        <v>181677.0</v>
+        <v>181677</v>
       </c>
       <c r="BC11" t="n">
-        <v>452813.0</v>
+        <v>452813</v>
       </c>
       <c r="BD11" t="n">
-        <v>41212.0</v>
+        <v>41212</v>
       </c>
       <c r="BE11" t="n">
-        <v>12865.0</v>
+        <v>12865</v>
       </c>
       <c r="BF11" t="n">
-        <v>13037.0</v>
+        <v>13037</v>
       </c>
       <c r="BG11" t="n">
-        <v>20356.0</v>
+        <v>20356</v>
       </c>
       <c r="BH11" t="n">
-        <v>43524.0</v>
+        <v>43524</v>
       </c>
       <c r="BI11" t="n">
-        <v>2825.0</v>
+        <v>2825</v>
       </c>
       <c r="BJ11" t="n">
-        <v>63266.0</v>
+        <v>63266</v>
       </c>
       <c r="BK11" t="n">
-        <v>9940.0</v>
+        <v>9940</v>
       </c>
       <c r="BL11" t="n">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="BM11" t="n">
-        <v>4873.0</v>
+        <v>4873</v>
       </c>
       <c r="BN11" t="n">
-        <v>33069.0</v>
+        <v>33069</v>
       </c>
       <c r="BO11" t="n">
-        <v>3444.0</v>
+        <v>3444</v>
       </c>
       <c r="BP11" t="n">
-        <v>7649.0</v>
+        <v>7649</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>1090.0</v>
+        <v>1090</v>
       </c>
       <c r="C12" t="n">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="D12" t="n">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="E12" t="n">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="F12" t="n">
-        <v>1319.0</v>
+        <v>1319</v>
       </c>
       <c r="G12" t="n">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="H12" t="n">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="I12" t="n">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="J12" t="n">
-        <v>603.0</v>
+        <v>603</v>
       </c>
       <c r="K12" t="n">
-        <v>1838.0</v>
+        <v>1838</v>
       </c>
       <c r="L12" t="n">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="M12" t="n">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="N12" t="n">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="O12" t="n">
-        <v>551.0</v>
+        <v>551</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="Q12" t="n">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="R12" t="n">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="S12" t="n">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="T12" t="n">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="U12" t="n">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="V12" t="n">
-        <v>824.0</v>
+        <v>824</v>
       </c>
       <c r="W12" t="n">
-        <v>479.0</v>
+        <v>479</v>
       </c>
       <c r="X12" t="n">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="Y12" t="n">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="Z12" t="n">
-        <v>902.0</v>
+        <v>902</v>
       </c>
       <c r="AA12" t="n">
-        <v>816.0</v>
+        <v>816</v>
       </c>
       <c r="AB12" t="n">
-        <v>754.0</v>
+        <v>754</v>
       </c>
       <c r="AC12" t="n">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="AD12" t="n">
-        <v>919.0</v>
+        <v>919</v>
       </c>
       <c r="AE12" t="n">
-        <v>819.0</v>
+        <v>819</v>
       </c>
       <c r="AF12" t="n">
-        <v>624.0</v>
+        <v>624</v>
       </c>
       <c r="AG12" t="n">
-        <v>1238.0</v>
+        <v>1238</v>
       </c>
       <c r="AH12" t="n">
-        <v>1205.0</v>
+        <v>1205</v>
       </c>
       <c r="AI12" t="n">
-        <v>803.0</v>
+        <v>803</v>
       </c>
       <c r="AJ12" t="n">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="AK12" t="n">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="AL12" t="n">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="AM12" t="n">
-        <v>1656.0</v>
+        <v>1656</v>
       </c>
       <c r="AN12" t="n">
-        <v>593.0</v>
+        <v>593</v>
       </c>
       <c r="AO12" t="n">
-        <v>4177.0</v>
+        <v>4177</v>
       </c>
       <c r="AP12" t="n">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8858.0</v>
+        <v>8858</v>
       </c>
       <c r="AR12" t="n">
-        <v>2647.0</v>
+        <v>2647</v>
       </c>
       <c r="AS12" t="n">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="AT12" t="n">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="AU12" t="n">
-        <v>1493.0</v>
+        <v>1493</v>
       </c>
       <c r="AV12" t="n">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="AW12" t="n">
-        <v>1244.0</v>
+        <v>1244</v>
       </c>
       <c r="AX12" t="n">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="AY12" t="n">
-        <v>1498.0</v>
+        <v>1498</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4323.0</v>
+        <v>4323</v>
       </c>
       <c r="BA12" t="n">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="BB12" t="n">
-        <v>6293.0</v>
+        <v>6293</v>
       </c>
       <c r="BC12" t="n">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="BD12" t="n">
-        <v>1681.0</v>
+        <v>1681</v>
       </c>
       <c r="BE12" t="n">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="BF12" t="n">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="BG12" t="n">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="BH12" t="n">
-        <v>2366.0</v>
+        <v>2366</v>
       </c>
       <c r="BI12" t="n">
-        <v>806.0</v>
+        <v>806</v>
       </c>
       <c r="BJ12" t="n">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="BK12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BL12" t="n">
-        <v>1840.0</v>
+        <v>1840</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="BN12" t="n">
-        <v>1868.0</v>
+        <v>1868</v>
       </c>
       <c r="BO12" t="n">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="BP12" t="n">
-        <v>978.0</v>
+        <v>978</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>-8647.0</v>
+        <v>-8647</v>
       </c>
       <c r="C13" t="n">
-        <v>-135.0</v>
+        <v>-135</v>
       </c>
       <c r="D13" t="n">
-        <v>-34.0</v>
+        <v>-34</v>
       </c>
       <c r="E13" t="n">
-        <v>-73.0</v>
+        <v>-73</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-29.0</v>
+        <v>-29</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-97.0</v>
+        <v>-97</v>
       </c>
       <c r="J13" t="n">
-        <v>-136.0</v>
+        <v>-136</v>
       </c>
       <c r="K13" t="n">
-        <v>-126.0</v>
+        <v>-126</v>
       </c>
       <c r="L13" t="n">
-        <v>-38.0</v>
+        <v>-38</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-37.0</v>
+        <v>-37</v>
       </c>
       <c r="R13" t="n">
-        <v>-95.0</v>
+        <v>-95</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-179.0</v>
+        <v>-179</v>
       </c>
       <c r="U13" t="n">
-        <v>-159.0</v>
+        <v>-159</v>
       </c>
       <c r="V13" t="n">
-        <v>-36.0</v>
+        <v>-36</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="Z13" t="n">
-        <v>-143.0</v>
+        <v>-143</v>
       </c>
       <c r="AA13" t="n">
-        <v>-118.0</v>
+        <v>-118</v>
       </c>
       <c r="AB13" t="n">
-        <v>-64.0</v>
+        <v>-64</v>
       </c>
       <c r="AC13" t="n">
-        <v>-33.0</v>
+        <v>-33</v>
       </c>
       <c r="AD13" t="n">
-        <v>-79.0</v>
+        <v>-79</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-88.0</v>
+        <v>-88</v>
       </c>
       <c r="AG13" t="n">
-        <v>-232.0</v>
+        <v>-232</v>
       </c>
       <c r="AH13" t="n">
-        <v>-262.0</v>
+        <v>-262</v>
       </c>
       <c r="AI13" t="n">
-        <v>-214.0</v>
+        <v>-214</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-60.0</v>
+        <v>-60</v>
       </c>
       <c r="AK13" t="n">
-        <v>-34.0</v>
+        <v>-34</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-648.0</v>
+        <v>-648</v>
       </c>
       <c r="AN13" t="n">
-        <v>-37.0</v>
+        <v>-37</v>
       </c>
       <c r="AO13" t="n">
-        <v>-434.0</v>
+        <v>-434</v>
       </c>
       <c r="AP13" t="n">
-        <v>-34.0</v>
+        <v>-34</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1104.0</v>
+        <v>-1104</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1945.0</v>
+        <v>-1945</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="AU13" t="n">
-        <v>-58.0</v>
+        <v>-58</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-76.0</v>
+        <v>-76</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-516.0</v>
+        <v>-516</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-185.0</v>
+        <v>-185</v>
       </c>
       <c r="BH13" t="n">
-        <v>-58.0</v>
+        <v>-58</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-29.0</v>
+        <v>-29</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>278711.0</v>
+        <v>278711</v>
       </c>
       <c r="C14" t="n">
-        <v>125218.0</v>
+        <v>125218</v>
       </c>
       <c r="D14" t="n">
-        <v>31135.0</v>
+        <v>31135</v>
       </c>
       <c r="E14" t="n">
-        <v>19479.0</v>
+        <v>19479</v>
       </c>
       <c r="F14" t="n">
-        <v>216706.0</v>
+        <v>216706</v>
       </c>
       <c r="G14" t="n">
-        <v>70975.0</v>
+        <v>70975</v>
       </c>
       <c r="H14" t="n">
-        <v>11925.0</v>
+        <v>11925</v>
       </c>
       <c r="I14" t="n">
-        <v>235142.0</v>
+        <v>235142</v>
       </c>
       <c r="J14" t="n">
-        <v>48692.0</v>
+        <v>48692</v>
       </c>
       <c r="K14" t="n">
-        <v>237388.0</v>
+        <v>237388</v>
       </c>
       <c r="L14" t="n">
-        <v>71456.0</v>
+        <v>71456</v>
       </c>
       <c r="M14" t="n">
-        <v>15786.0</v>
+        <v>15786</v>
       </c>
       <c r="N14" t="n">
-        <v>48755.0</v>
+        <v>48755</v>
       </c>
       <c r="O14" t="n">
-        <v>62341.0</v>
+        <v>62341</v>
       </c>
       <c r="P14" t="n">
-        <v>41241.0</v>
+        <v>41241</v>
       </c>
       <c r="Q14" t="n">
-        <v>28694.0</v>
+        <v>28694</v>
       </c>
       <c r="R14" t="n">
-        <v>72783.0</v>
+        <v>72783</v>
       </c>
       <c r="S14" t="n">
-        <v>20852.0</v>
+        <v>20852</v>
       </c>
       <c r="T14" t="n">
-        <v>364803.0</v>
+        <v>364803</v>
       </c>
       <c r="U14" t="n">
-        <v>35434.0</v>
+        <v>35434</v>
       </c>
       <c r="V14" t="n">
-        <v>135209.0</v>
+        <v>135209</v>
       </c>
       <c r="W14" t="n">
-        <v>65030.0</v>
+        <v>65030</v>
       </c>
       <c r="X14" t="n">
-        <v>38909.0</v>
+        <v>38909</v>
       </c>
       <c r="Y14" t="n">
-        <v>56561.0</v>
+        <v>56561</v>
       </c>
       <c r="Z14" t="n">
-        <v>102769.0</v>
+        <v>102769</v>
       </c>
       <c r="AA14" t="n">
-        <v>94114.0</v>
+        <v>94114</v>
       </c>
       <c r="AB14" t="n">
-        <v>108146.0</v>
+        <v>108146</v>
       </c>
       <c r="AC14" t="n">
-        <v>51102.0</v>
+        <v>51102</v>
       </c>
       <c r="AD14" t="n">
-        <v>95125.0</v>
+        <v>95125</v>
       </c>
       <c r="AE14" t="n">
-        <v>90532.0</v>
+        <v>90532</v>
       </c>
       <c r="AF14" t="n">
-        <v>71474.0</v>
+        <v>71474</v>
       </c>
       <c r="AG14" t="n">
-        <v>135525.0</v>
+        <v>135525</v>
       </c>
       <c r="AH14" t="n">
-        <v>172624.0</v>
+        <v>172624</v>
       </c>
       <c r="AI14" t="n">
-        <v>80245.0</v>
+        <v>80245</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48758.0</v>
+        <v>48758</v>
       </c>
       <c r="AK14" t="n">
-        <v>71259.0</v>
+        <v>71259</v>
       </c>
       <c r="AL14" t="n">
-        <v>59450.0</v>
+        <v>59450</v>
       </c>
       <c r="AM14" t="n">
-        <v>211363.0</v>
+        <v>211363</v>
       </c>
       <c r="AN14" t="n">
-        <v>60661.0</v>
+        <v>60661</v>
       </c>
       <c r="AO14" t="n">
-        <v>662329.0</v>
+        <v>662329</v>
       </c>
       <c r="AP14" t="n">
-        <v>149926.0</v>
+        <v>149926</v>
       </c>
       <c r="AQ14" t="n">
-        <v>913319.0</v>
+        <v>913319</v>
       </c>
       <c r="AR14" t="n">
-        <v>323975.0</v>
+        <v>323975</v>
       </c>
       <c r="AS14" t="n">
-        <v>17453.0</v>
+        <v>17453</v>
       </c>
       <c r="AT14" t="n">
-        <v>37736.0</v>
+        <v>37736</v>
       </c>
       <c r="AU14" t="n">
-        <v>109823.0</v>
+        <v>109823</v>
       </c>
       <c r="AV14" t="n">
-        <v>24494.0</v>
+        <v>24494</v>
       </c>
       <c r="AW14" t="n">
-        <v>219910.0</v>
+        <v>219910</v>
       </c>
       <c r="AX14" t="n">
-        <v>22379.0</v>
+        <v>22379</v>
       </c>
       <c r="AY14" t="n">
-        <v>43383.0</v>
+        <v>43383</v>
       </c>
       <c r="AZ14" t="n">
-        <v>162308.0</v>
+        <v>162308</v>
       </c>
       <c r="BA14" t="n">
-        <v>115472.0</v>
+        <v>115472</v>
       </c>
       <c r="BB14" t="n">
-        <v>505894.0</v>
+        <v>505894</v>
       </c>
       <c r="BC14" t="n">
-        <v>505800.0</v>
+        <v>505800</v>
       </c>
       <c r="BD14" t="n">
-        <v>174311.0</v>
+        <v>174311</v>
       </c>
       <c r="BE14" t="n">
-        <v>72807.0</v>
+        <v>72807</v>
       </c>
       <c r="BF14" t="n">
-        <v>90927.0</v>
+        <v>90927</v>
       </c>
       <c r="BG14" t="n">
-        <v>47146.0</v>
+        <v>47146</v>
       </c>
       <c r="BH14" t="n">
-        <v>198781.0</v>
+        <v>198781</v>
       </c>
       <c r="BI14" t="n">
-        <v>37700.0</v>
+        <v>37700</v>
       </c>
       <c r="BJ14" t="n">
-        <v>675619.0</v>
+        <v>675619</v>
       </c>
       <c r="BK14" t="n">
-        <v>283767.0</v>
+        <v>283767</v>
       </c>
       <c r="BL14" t="n">
-        <v>99725.0</v>
+        <v>99725</v>
       </c>
       <c r="BM14" t="n">
-        <v>166924.0</v>
+        <v>166924</v>
       </c>
       <c r="BN14" t="n">
-        <v>202015.0</v>
+        <v>202015</v>
       </c>
       <c r="BO14" t="n">
-        <v>35052.0</v>
+        <v>35052</v>
       </c>
       <c r="BP14" t="n">
-        <v>144093.0</v>
+        <v>144093</v>
       </c>
       <c r="BQ14" t="n">
-        <v>58164.0</v>
+        <v>58164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>6447599.0</v>
+        <v>6447599</v>
       </c>
       <c r="C15" t="n">
-        <v>6780179.0</v>
+        <v>6780179</v>
       </c>
       <c r="D15" t="n">
-        <v>941970.0</v>
+        <v>941970</v>
       </c>
       <c r="E15" t="n">
-        <v>143339.0</v>
+        <v>143339</v>
       </c>
       <c r="F15" t="n">
-        <v>72548.0</v>
+        <v>72548</v>
       </c>
       <c r="G15" t="n">
-        <v>51415.0</v>
+        <v>51415</v>
       </c>
       <c r="H15" t="n">
-        <v>34662.0</v>
+        <v>34662</v>
       </c>
       <c r="I15" t="n">
-        <v>722136.0</v>
+        <v>722136</v>
       </c>
       <c r="J15" t="n">
-        <v>201484.0</v>
+        <v>201484</v>
       </c>
       <c r="K15" t="n">
-        <v>1239362.0</v>
+        <v>1239362</v>
       </c>
       <c r="L15" t="n">
-        <v>172943.0</v>
+        <v>172943</v>
       </c>
       <c r="M15" t="n">
-        <v>18614.0</v>
+        <v>18614</v>
       </c>
       <c r="N15" t="n">
-        <v>673039.0</v>
+        <v>673039</v>
       </c>
       <c r="O15" t="n">
-        <v>1787108.0</v>
+        <v>1787108</v>
       </c>
       <c r="P15" t="n">
-        <v>529425.0</v>
+        <v>529425</v>
       </c>
       <c r="Q15" t="n">
-        <v>437776.0</v>
+        <v>437776</v>
       </c>
       <c r="R15" t="n">
-        <v>205594.0</v>
+        <v>205594</v>
       </c>
       <c r="S15" t="n">
-        <v>200709.0</v>
+        <v>200709</v>
       </c>
       <c r="T15" t="n">
-        <v>25674.0</v>
+        <v>25674</v>
       </c>
       <c r="U15" t="n">
-        <v>97661.0</v>
+        <v>97661</v>
       </c>
       <c r="V15" t="n">
-        <v>103443.0</v>
+        <v>103443</v>
       </c>
       <c r="W15" t="n">
-        <v>95022.0</v>
+        <v>95022</v>
       </c>
       <c r="X15" t="n">
-        <v>155090.0</v>
+        <v>155090</v>
       </c>
       <c r="Y15" t="n">
-        <v>109176.0</v>
+        <v>109176</v>
       </c>
       <c r="Z15" t="n">
-        <v>494858.0</v>
+        <v>494858</v>
       </c>
       <c r="AA15" t="n">
-        <v>699383.0</v>
+        <v>699383</v>
       </c>
       <c r="AB15" t="n">
-        <v>141851.0</v>
+        <v>141851</v>
       </c>
       <c r="AC15" t="n">
-        <v>112563.0</v>
+        <v>112563</v>
       </c>
       <c r="AD15" t="n">
-        <v>801169.0</v>
+        <v>801169</v>
       </c>
       <c r="AE15" t="n">
-        <v>171977.0</v>
+        <v>171977</v>
       </c>
       <c r="AF15" t="n">
-        <v>257976.0</v>
+        <v>257976</v>
       </c>
       <c r="AG15" t="n">
-        <v>478536.0</v>
+        <v>478536</v>
       </c>
       <c r="AH15" t="n">
-        <v>200208.0</v>
+        <v>200208</v>
       </c>
       <c r="AI15" t="n">
-        <v>310597.0</v>
+        <v>310597</v>
       </c>
       <c r="AJ15" t="n">
-        <v>134331.0</v>
+        <v>134331</v>
       </c>
       <c r="AK15" t="n">
-        <v>791308.0</v>
+        <v>791308</v>
       </c>
       <c r="AL15" t="n">
-        <v>546816.0</v>
+        <v>546816</v>
       </c>
       <c r="AM15" t="n">
-        <v>157329.0</v>
+        <v>157329</v>
       </c>
       <c r="AN15" t="n">
-        <v>527566.0</v>
+        <v>527566</v>
       </c>
       <c r="AO15" t="n">
-        <v>9149114.0</v>
+        <v>9149114</v>
       </c>
       <c r="AP15" t="n">
-        <v>2959403.0</v>
+        <v>2959403</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.6404375E7</v>
+        <v>16404375</v>
       </c>
       <c r="AR15" t="n">
-        <v>3775762.0</v>
+        <v>3775762</v>
       </c>
       <c r="AS15" t="n">
-        <v>67705.0</v>
+        <v>67705</v>
       </c>
       <c r="AT15" t="n">
-        <v>68128.0</v>
+        <v>68128</v>
       </c>
       <c r="AU15" t="n">
-        <v>831043.0</v>
+        <v>831043</v>
       </c>
       <c r="AV15" t="n">
-        <v>458159.0</v>
+        <v>458159</v>
       </c>
       <c r="AW15" t="n">
-        <v>4909809.0</v>
+        <v>4909809</v>
       </c>
       <c r="AX15" t="n">
-        <v>168995.0</v>
+        <v>168995</v>
       </c>
       <c r="AY15" t="n">
-        <v>177371.0</v>
+        <v>177371</v>
       </c>
       <c r="AZ15" t="n">
-        <v>251157.0</v>
+        <v>251157</v>
       </c>
       <c r="BA15" t="n">
-        <v>798074.0</v>
+        <v>798074</v>
       </c>
       <c r="BB15" t="n">
-        <v>1219612.0</v>
+        <v>1219612</v>
       </c>
       <c r="BC15" t="n">
-        <v>404926.0</v>
+        <v>404926</v>
       </c>
       <c r="BD15" t="n">
-        <v>1661028.0</v>
+        <v>1661028</v>
       </c>
       <c r="BE15" t="n">
-        <v>660662.0</v>
+        <v>660662</v>
       </c>
       <c r="BF15" t="n">
-        <v>522585.0</v>
+        <v>522585</v>
       </c>
       <c r="BG15" t="n">
-        <v>356527.0</v>
+        <v>356527</v>
       </c>
       <c r="BH15" t="n">
-        <v>4164450.0</v>
+        <v>4164450</v>
       </c>
       <c r="BI15" t="n">
-        <v>861383.0</v>
+        <v>861383</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5249840.0</v>
+        <v>5249840</v>
       </c>
       <c r="BK15" t="n">
-        <v>4384442.0</v>
+        <v>4384442</v>
       </c>
       <c r="BL15" t="n">
-        <v>2451485.0</v>
+        <v>2451485</v>
       </c>
       <c r="BM15" t="n">
-        <v>1780378.0</v>
+        <v>1780378</v>
       </c>
       <c r="BN15" t="n">
-        <v>2801782.0</v>
+        <v>2801782</v>
       </c>
       <c r="BO15" t="n">
-        <v>1034540.0</v>
+        <v>1034540</v>
       </c>
       <c r="BP15" t="n">
-        <v>4224880.0</v>
+        <v>4224880</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6602627.0</v>
+        <v>6602627</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2014.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2014.xlsx
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2014.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2014.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>159111</v>
+        <v>159111.0</v>
       </c>
       <c r="C2" t="n">
-        <v>67178</v>
+        <v>67178.0</v>
       </c>
       <c r="D2" t="n">
-        <v>23686</v>
+        <v>23686.0</v>
       </c>
       <c r="E2" t="n">
-        <v>8845</v>
+        <v>8845.0</v>
       </c>
       <c r="F2" t="n">
-        <v>129598</v>
+        <v>129598.0</v>
       </c>
       <c r="G2" t="n">
-        <v>44174</v>
+        <v>44174.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2180</v>
+        <v>2180.0</v>
       </c>
       <c r="I2" t="n">
-        <v>34403</v>
+        <v>34403.0</v>
       </c>
       <c r="J2" t="n">
-        <v>6829</v>
+        <v>6829.0</v>
       </c>
       <c r="K2" t="n">
-        <v>46921</v>
+        <v>46921.0</v>
       </c>
       <c r="L2" t="n">
-        <v>20923</v>
+        <v>20923.0</v>
       </c>
       <c r="M2" t="n">
-        <v>5105</v>
+        <v>5105.0</v>
       </c>
       <c r="N2" t="n">
-        <v>15156</v>
+        <v>15156.0</v>
       </c>
       <c r="O2" t="n">
-        <v>25914</v>
+        <v>25914.0</v>
       </c>
       <c r="P2" t="n">
-        <v>14042</v>
+        <v>14042.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>11364</v>
+        <v>11364.0</v>
       </c>
       <c r="R2" t="n">
-        <v>19316</v>
+        <v>19316.0</v>
       </c>
       <c r="S2" t="n">
-        <v>9140</v>
+        <v>9140.0</v>
       </c>
       <c r="T2" t="n">
-        <v>-16729</v>
+        <v>-16729.0</v>
       </c>
       <c r="U2" t="n">
-        <v>7305</v>
+        <v>7305.0</v>
       </c>
       <c r="V2" t="n">
-        <v>18734</v>
+        <v>18734.0</v>
       </c>
       <c r="W2" t="n">
-        <v>14877</v>
+        <v>14877.0</v>
       </c>
       <c r="X2" t="n">
-        <v>7975</v>
+        <v>7975.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>25412</v>
+        <v>25412.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>27998</v>
+        <v>27998.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>30994</v>
+        <v>30994.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>30190</v>
+        <v>30190.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>10281</v>
+        <v>10281.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35496</v>
+        <v>35496.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>16311</v>
+        <v>16311.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>18036</v>
+        <v>18036.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>41801</v>
+        <v>41801.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>27371</v>
+        <v>27371.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>23138</v>
+        <v>23138.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11968</v>
+        <v>11968.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>32956</v>
+        <v>32956.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>24149</v>
+        <v>24149.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>56222</v>
+        <v>56222.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>37753</v>
+        <v>37753.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>306946</v>
+        <v>306946.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>89526</v>
+        <v>89526.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>587036</v>
+        <v>587036.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>148027</v>
+        <v>148027.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>7347</v>
+        <v>7347.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>9108</v>
+        <v>9108.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>63275</v>
+        <v>63275.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>14435</v>
+        <v>14435.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>110497</v>
+        <v>110497.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>9194</v>
+        <v>9194.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>19032</v>
+        <v>19032.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>63318</v>
+        <v>63318.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>77066</v>
+        <v>77066.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>318680</v>
+        <v>318680.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>463781</v>
+        <v>463781.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>119287</v>
+        <v>119287.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>46499</v>
+        <v>46499.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>30620</v>
+        <v>30620.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>31428</v>
+        <v>31428.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>142777</v>
+        <v>142777.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>31180</v>
+        <v>31180.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>474773</v>
+        <v>474773.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>231854</v>
+        <v>231854.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>68794</v>
+        <v>68794.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>110181</v>
+        <v>110181.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>122447</v>
+        <v>122447.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>19749</v>
+        <v>19749.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>71590</v>
+        <v>71590.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>58164</v>
+        <v>58164.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>25278</v>
+        <v>25278.0</v>
       </c>
       <c r="C3" t="n">
-        <v>20702</v>
+        <v>20702.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2220</v>
+        <v>2220.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4117</v>
+        <v>4117.0</v>
       </c>
       <c r="F3" t="n">
-        <v>22953</v>
+        <v>22953.0</v>
       </c>
       <c r="G3" t="n">
-        <v>6294</v>
+        <v>6294.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2044</v>
+        <v>2044.0</v>
       </c>
       <c r="I3" t="n">
-        <v>23618</v>
+        <v>23618.0</v>
       </c>
       <c r="J3" t="n">
-        <v>9100</v>
+        <v>9100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>27109</v>
+        <v>27109.0</v>
       </c>
       <c r="L3" t="n">
-        <v>7770</v>
+        <v>7770.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1542</v>
+        <v>1542.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9971</v>
+        <v>9971.0</v>
       </c>
       <c r="O3" t="n">
-        <v>17933</v>
+        <v>17933.0</v>
       </c>
       <c r="P3" t="n">
-        <v>9450</v>
+        <v>9450.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6126</v>
+        <v>6126.0</v>
       </c>
       <c r="R3" t="n">
-        <v>10791</v>
+        <v>10791.0</v>
       </c>
       <c r="S3" t="n">
-        <v>5205</v>
+        <v>5205.0</v>
       </c>
       <c r="T3" t="n">
-        <v>6861</v>
+        <v>6861.0</v>
       </c>
       <c r="U3" t="n">
-        <v>5417</v>
+        <v>5417.0</v>
       </c>
       <c r="V3" t="n">
-        <v>10299</v>
+        <v>10299.0</v>
       </c>
       <c r="W3" t="n">
-        <v>8316</v>
+        <v>8316.0</v>
       </c>
       <c r="X3" t="n">
-        <v>5165</v>
+        <v>5165.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>10127</v>
+        <v>10127.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>20451</v>
+        <v>20451.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>19206</v>
+        <v>19206.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>12921</v>
+        <v>12921.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>6245</v>
+        <v>6245.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>23053</v>
+        <v>23053.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>10456</v>
+        <v>10456.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>13966</v>
+        <v>13966.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>29000</v>
+        <v>29000.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>20537</v>
+        <v>20537.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>19211</v>
+        <v>19211.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9614</v>
+        <v>9614.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>14683</v>
+        <v>14683.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>12060</v>
+        <v>12060.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>15551</v>
+        <v>15551.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>15494</v>
+        <v>15494.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>136103</v>
+        <v>136103.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>41437</v>
+        <v>41437.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>275670</v>
+        <v>275670.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>74838</v>
+        <v>74838.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>4492</v>
+        <v>4492.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>6752</v>
+        <v>6752.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>37346</v>
+        <v>37346.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>8915</v>
+        <v>8915.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>43571</v>
+        <v>43571.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6651</v>
+        <v>6651.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>9604</v>
+        <v>9604.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16891</v>
+        <v>16891.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>40900</v>
+        <v>40900.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>128519</v>
+        <v>128519.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>5928</v>
+        <v>5928.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>48760</v>
+        <v>48760.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>23042</v>
+        <v>23042.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>11292</v>
+        <v>11292.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>10159</v>
+        <v>10159.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>91223</v>
+        <v>91223.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>26652</v>
+        <v>26652.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>411388</v>
+        <v>411388.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>221910</v>
+        <v>221910.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>61383</v>
+        <v>61383.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>105307</v>
+        <v>105307.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>58533</v>
+        <v>58533.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>9689</v>
+        <v>9689.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>39394</v>
+        <v>39394.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>58164</v>
+        <v>58164.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>21476</v>
+        <v>21476.0</v>
       </c>
       <c r="C4" t="n">
-        <v>17868</v>
+        <v>17868.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1901</v>
+        <v>1901.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3229</v>
+        <v>3229.0</v>
       </c>
       <c r="F4" t="n">
-        <v>17029</v>
+        <v>17029.0</v>
       </c>
       <c r="G4" t="n">
-        <v>4840</v>
+        <v>4840.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1639</v>
+        <v>1639.0</v>
       </c>
       <c r="I4" t="n">
-        <v>18290</v>
+        <v>18290.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6762</v>
+        <v>6762.0</v>
       </c>
       <c r="K4" t="n">
-        <v>21637</v>
+        <v>21637.0</v>
       </c>
       <c r="L4" t="n">
-        <v>6092</v>
+        <v>6092.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1192</v>
+        <v>1192.0</v>
       </c>
       <c r="N4" t="n">
-        <v>8200</v>
+        <v>8200.0</v>
       </c>
       <c r="O4" t="n">
-        <v>14529</v>
+        <v>14529.0</v>
       </c>
       <c r="P4" t="n">
-        <v>7852</v>
+        <v>7852.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5082</v>
+        <v>5082.0</v>
       </c>
       <c r="R4" t="n">
-        <v>8489</v>
+        <v>8489.0</v>
       </c>
       <c r="S4" t="n">
-        <v>4187</v>
+        <v>4187.0</v>
       </c>
       <c r="T4" t="n">
-        <v>4976</v>
+        <v>4976.0</v>
       </c>
       <c r="U4" t="n">
-        <v>4185</v>
+        <v>4185.0</v>
       </c>
       <c r="V4" t="n">
-        <v>7873</v>
+        <v>7873.0</v>
       </c>
       <c r="W4" t="n">
-        <v>6310</v>
+        <v>6310.0</v>
       </c>
       <c r="X4" t="n">
-        <v>4036</v>
+        <v>4036.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7736</v>
+        <v>7736.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>16076</v>
+        <v>16076.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>15621</v>
+        <v>15621.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>9779</v>
+        <v>9779.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4831</v>
+        <v>4831.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>18404</v>
+        <v>18404.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>8347</v>
+        <v>8347.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>11025</v>
+        <v>11025.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>22798</v>
+        <v>22798.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15923</v>
+        <v>15923.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>15588</v>
+        <v>15588.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8026</v>
+        <v>8026.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>12061</v>
+        <v>12061.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>9808</v>
+        <v>9808.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>11254</v>
+        <v>11254.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>11968</v>
+        <v>11968.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>110800</v>
+        <v>110800.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>33812</v>
+        <v>33812.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>219234</v>
+        <v>219234.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>60486</v>
+        <v>60486.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>3710</v>
+        <v>3710.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>5616</v>
+        <v>5616.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>29460</v>
+        <v>29460.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>7504</v>
+        <v>7504.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>36297</v>
+        <v>36297.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>5221</v>
+        <v>5221.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>8012</v>
+        <v>8012.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13158</v>
+        <v>13158.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>33445</v>
+        <v>33445.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>97930</v>
+        <v>97930.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>4654</v>
+        <v>4654.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>39042</v>
+        <v>39042.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>18629</v>
+        <v>18629.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>9120</v>
+        <v>9120.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>8092</v>
+        <v>8092.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>72578</v>
+        <v>72578.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>20843</v>
+        <v>20843.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>292588</v>
+        <v>292588.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>188808</v>
+        <v>188808.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>52012</v>
+        <v>52012.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>84523</v>
+        <v>84523.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>51025</v>
+        <v>51025.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>8203</v>
+        <v>8203.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>33498</v>
+        <v>33498.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>55190</v>
+        <v>55190.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>3802</v>
+        <v>3802.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2834</v>
+        <v>2834.0</v>
       </c>
       <c r="D5" t="n">
-        <v>319</v>
+        <v>319.0</v>
       </c>
       <c r="E5" t="n">
-        <v>888</v>
+        <v>888.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5924</v>
+        <v>5924.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1454</v>
+        <v>1454.0</v>
       </c>
       <c r="H5" t="n">
-        <v>405</v>
+        <v>405.0</v>
       </c>
       <c r="I5" t="n">
-        <v>5328</v>
+        <v>5328.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2338</v>
+        <v>2338.0</v>
       </c>
       <c r="K5" t="n">
-        <v>5472</v>
+        <v>5472.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1678</v>
+        <v>1678.0</v>
       </c>
       <c r="M5" t="n">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1771</v>
+        <v>1771.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3404</v>
+        <v>3404.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1598</v>
+        <v>1598.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1044</v>
+        <v>1044.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2302</v>
+        <v>2302.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1018</v>
+        <v>1018.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1885</v>
+        <v>1885.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1232</v>
+        <v>1232.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2426</v>
+        <v>2426.0</v>
       </c>
       <c r="W5" t="n">
-        <v>2006</v>
+        <v>2006.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1129</v>
+        <v>1129.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2391</v>
+        <v>2391.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4375</v>
+        <v>4375.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3585</v>
+        <v>3585.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>3142</v>
+        <v>3142.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1414</v>
+        <v>1414.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4649</v>
+        <v>4649.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>2109</v>
+        <v>2109.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2941</v>
+        <v>2941.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>6202</v>
+        <v>6202.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4614</v>
+        <v>4614.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>3623</v>
+        <v>3623.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1588</v>
+        <v>1588.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2622</v>
+        <v>2622.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>2252</v>
+        <v>2252.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>4297</v>
+        <v>4297.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>3526</v>
+        <v>3526.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>25303</v>
+        <v>25303.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>7625</v>
+        <v>7625.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>56436</v>
+        <v>56436.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>14352</v>
+        <v>14352.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>782</v>
+        <v>782.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1136</v>
+        <v>1136.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>7886</v>
+        <v>7886.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1411</v>
+        <v>1411.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>7274</v>
+        <v>7274.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1430</v>
+        <v>1430.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1592</v>
+        <v>1592.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3733</v>
+        <v>3733.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>7455</v>
+        <v>7455.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>30589</v>
+        <v>30589.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1274</v>
+        <v>1274.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>9718</v>
+        <v>9718.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>4413</v>
+        <v>4413.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>2172</v>
+        <v>2172.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>2067</v>
+        <v>2067.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>18645</v>
+        <v>18645.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>5809</v>
+        <v>5809.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>57215</v>
+        <v>57215.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>30285</v>
+        <v>30285.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>9371</v>
+        <v>9371.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>15476</v>
+        <v>15476.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>7508</v>
+        <v>7508.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1486</v>
+        <v>1486.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>5896</v>
+        <v>5896.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2974</v>
+        <v>2974.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>3789</v>
+        <v>3789.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2832</v>
+        <v>2832.0</v>
       </c>
       <c r="D6" t="n">
-        <v>318</v>
+        <v>318.0</v>
       </c>
       <c r="E6" t="n">
-        <v>869</v>
+        <v>869.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4822</v>
+        <v>4822.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1387</v>
+        <v>1387.0</v>
       </c>
       <c r="H6" t="n">
-        <v>387</v>
+        <v>387.0</v>
       </c>
       <c r="I6" t="n">
-        <v>5218</v>
+        <v>5218.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2292</v>
+        <v>2292.0</v>
       </c>
       <c r="K6" t="n">
-        <v>5270</v>
+        <v>5270.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1637</v>
+        <v>1637.0</v>
       </c>
       <c r="M6" t="n">
-        <v>327</v>
+        <v>327.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1748</v>
+        <v>1748.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3376</v>
+        <v>3376.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1577</v>
+        <v>1577.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>996</v>
+        <v>996.0</v>
       </c>
       <c r="R6" t="n">
-        <v>2060</v>
+        <v>2060.0</v>
       </c>
       <c r="S6" t="n">
-        <v>950</v>
+        <v>950.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1414</v>
+        <v>1414.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1161</v>
+        <v>1161.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2260</v>
+        <v>2260.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1830</v>
+        <v>1830.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1098</v>
+        <v>1098.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2180</v>
+        <v>2180.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4277</v>
+        <v>4277.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3446</v>
+        <v>3446.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2953</v>
+        <v>2953.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1335</v>
+        <v>1335.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4408</v>
+        <v>4408.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>2059</v>
+        <v>2059.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2849</v>
+        <v>2849.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5821</v>
+        <v>5821.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4379</v>
+        <v>4379.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>3536</v>
+        <v>3536.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1501</v>
+        <v>1501.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2479</v>
+        <v>2479.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>2136</v>
+        <v>2136.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>3522</v>
+        <v>3522.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>3299</v>
+        <v>3299.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>24643</v>
+        <v>24643.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>7577</v>
+        <v>7577.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55801</v>
+        <v>55801.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>14071</v>
+        <v>14071.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>751</v>
+        <v>751.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1059</v>
+        <v>1059.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>7375</v>
+        <v>7375.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1395</v>
+        <v>1395.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>7172</v>
+        <v>7172.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1315</v>
+        <v>1315.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1515</v>
+        <v>1515.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3595</v>
+        <v>3595.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>7037</v>
+        <v>7037.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>26346</v>
+        <v>26346.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1255</v>
+        <v>1255.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>9080</v>
+        <v>9080.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>4343</v>
+        <v>4343.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>2134</v>
+        <v>2134.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>2031</v>
+        <v>2031.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>18423</v>
+        <v>18423.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>5782</v>
+        <v>5782.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>56725</v>
+        <v>56725.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>30229</v>
+        <v>30229.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>9357</v>
+        <v>9357.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>15456</v>
+        <v>15456.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>7468</v>
+        <v>7468.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>1459</v>
+        <v>1459.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>5772</v>
+        <v>5772.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2974</v>
+        <v>2974.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1102</v>
+        <v>1102.0</v>
       </c>
       <c r="G7" t="n">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="I7" t="n">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="J7" t="n">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="K7" t="n">
-        <v>202</v>
+        <v>202.0</v>
       </c>
       <c r="L7" t="n">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="O7" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="P7" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="R7" t="n">
-        <v>242</v>
+        <v>242.0</v>
       </c>
       <c r="S7" t="n">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="T7" t="n">
-        <v>471</v>
+        <v>471.0</v>
       </c>
       <c r="U7" t="n">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="V7" t="n">
-        <v>166</v>
+        <v>166.0</v>
       </c>
       <c r="W7" t="n">
-        <v>176</v>
+        <v>176.0</v>
       </c>
       <c r="X7" t="n">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>211</v>
+        <v>211.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>139</v>
+        <v>139.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>189</v>
+        <v>189.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>241</v>
+        <v>241.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>381</v>
+        <v>381.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>235</v>
+        <v>235.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>143</v>
+        <v>143.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>775</v>
+        <v>775.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>227</v>
+        <v>227.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>660</v>
+        <v>660.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>635</v>
+        <v>635.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>281</v>
+        <v>281.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>511</v>
+        <v>511.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>138</v>
+        <v>138.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>418</v>
+        <v>418.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>4243</v>
+        <v>4243.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>638</v>
+        <v>638.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>222</v>
+        <v>222.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>490</v>
+        <v>490.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>61585</v>
+        <v>61585.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>2817</v>
+        <v>2817.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5308</v>
+        <v>5308.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>141390</v>
+        <v>141390.0</v>
       </c>
       <c r="C9" t="n">
-        <v>46111</v>
+        <v>46111.0</v>
       </c>
       <c r="D9" t="n">
-        <v>21385</v>
+        <v>21385.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4636</v>
+        <v>4636.0</v>
       </c>
       <c r="F9" t="n">
-        <v>105326</v>
+        <v>105326.0</v>
       </c>
       <c r="G9" t="n">
-        <v>37459</v>
+        <v>37459.0</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="I9" t="n">
-        <v>9284</v>
+        <v>9284.0</v>
       </c>
       <c r="J9" t="n">
-        <v>-2738</v>
+        <v>-2738.0</v>
       </c>
       <c r="K9" t="n">
-        <v>18100</v>
+        <v>18100.0</v>
       </c>
       <c r="L9" t="n">
-        <v>12521</v>
+        <v>12521.0</v>
       </c>
       <c r="M9" t="n">
-        <v>3465</v>
+        <v>3465.0</v>
       </c>
       <c r="N9" t="n">
-        <v>4797</v>
+        <v>4797.0</v>
       </c>
       <c r="O9" t="n">
-        <v>7430</v>
+        <v>7430.0</v>
       </c>
       <c r="P9" t="n">
-        <v>4201</v>
+        <v>4201.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4994</v>
+        <v>4994.0</v>
       </c>
       <c r="R9" t="n">
-        <v>8065</v>
+        <v>8065.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3692</v>
+        <v>3692.0</v>
       </c>
       <c r="T9" t="n">
-        <v>-24347</v>
+        <v>-24347.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1751</v>
+        <v>1751.0</v>
       </c>
       <c r="V9" t="n">
-        <v>7647</v>
+        <v>7647.0</v>
       </c>
       <c r="W9" t="n">
-        <v>6082</v>
+        <v>6082.0</v>
       </c>
       <c r="X9" t="n">
-        <v>2516</v>
+        <v>2516.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>14851</v>
+        <v>14851.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>6788</v>
+        <v>6788.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>11090</v>
+        <v>11090.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>16579</v>
+        <v>16579.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>3712</v>
+        <v>3712.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11603</v>
+        <v>11603.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>5036</v>
+        <v>5036.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3534</v>
+        <v>3534.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>11795</v>
+        <v>11795.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>5891</v>
+        <v>5891.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>3338</v>
+        <v>3338.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1970</v>
+        <v>1970.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>17721</v>
+        <v>17721.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>11718</v>
+        <v>11718.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>39663</v>
+        <v>39663.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>21703</v>
+        <v>21703.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>167100</v>
+        <v>167100.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>46965</v>
+        <v>46965.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>303612</v>
+        <v>303612.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>72487</v>
+        <v>72487.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2521</v>
+        <v>2521.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1860</v>
+        <v>1860.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>24494</v>
+        <v>24494.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>5217</v>
+        <v>5217.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>65682</v>
+        <v>65682.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>2308</v>
+        <v>2308.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>7930</v>
+        <v>7930.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>42180</v>
+        <v>42180.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>34816</v>
+        <v>34816.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>183868</v>
+        <v>183868.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>457547</v>
+        <v>457547.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>68846</v>
+        <v>68846.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>23265</v>
+        <v>23265.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>18984</v>
+        <v>18984.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>21024</v>
+        <v>21024.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>49246</v>
+        <v>49246.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>3722</v>
+        <v>3722.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>63266</v>
+        <v>63266.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>9940</v>
+        <v>9940.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>5571</v>
+        <v>5571.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>4873</v>
+        <v>4873.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>62075</v>
+        <v>62075.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>9840</v>
+        <v>9840.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>31218</v>
+        <v>31218.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>74667</v>
+        <v>74667.0</v>
       </c>
       <c r="C10" t="n">
-        <v>34921</v>
+        <v>34921.0</v>
       </c>
       <c r="D10" t="n">
-        <v>10514</v>
+        <v>10514.0</v>
       </c>
       <c r="E10" t="n">
-        <v>290</v>
+        <v>290.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>344</v>
+        <v>344.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>3178</v>
+        <v>3178.0</v>
       </c>
       <c r="L10" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1331</v>
+        <v>1331.0</v>
       </c>
       <c r="O10" t="n">
-        <v>6053</v>
+        <v>6053.0</v>
       </c>
       <c r="P10" t="n">
-        <v>585</v>
+        <v>585.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1595</v>
+        <v>1595.0</v>
       </c>
       <c r="R10" t="n">
-        <v>272</v>
+        <v>272.0</v>
       </c>
       <c r="S10" t="n">
-        <v>458</v>
+        <v>458.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>418</v>
+        <v>418.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>239</v>
+        <v>239.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>818</v>
+        <v>818.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2205</v>
+        <v>2205.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1531</v>
+        <v>1531.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>4145</v>
+        <v>4145.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1677</v>
+        <v>1677.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>74937</v>
+        <v>74937.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>20226</v>
+        <v>20226.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>59750</v>
+        <v>59750.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>22660</v>
+        <v>22660.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>322</v>
+        <v>322.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1126</v>
+        <v>1126.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>671</v>
+        <v>671.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>32473</v>
+        <v>32473.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>468</v>
+        <v>468.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>789</v>
+        <v>789.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>440</v>
+        <v>440.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>7715</v>
+        <v>7715.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>2191</v>
+        <v>2191.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>4734</v>
+        <v>4734.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>27634</v>
+        <v>27634.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>10400</v>
+        <v>10400.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>5947</v>
+        <v>5947.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>668</v>
+        <v>668.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>5722</v>
+        <v>5722.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>897</v>
+        <v>897.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>4839</v>
+        <v>4839.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>29006</v>
+        <v>29006.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>6396</v>
+        <v>6396.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>23569</v>
+        <v>23569.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>66723</v>
+        <v>66723.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11190</v>
+        <v>11190.0</v>
       </c>
       <c r="D11" t="n">
-        <v>10871</v>
+        <v>10871.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4346</v>
+        <v>4346.0</v>
       </c>
       <c r="F11" t="n">
-        <v>105326</v>
+        <v>105326.0</v>
       </c>
       <c r="G11" t="n">
-        <v>37459</v>
+        <v>37459.0</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="I11" t="n">
-        <v>8940</v>
+        <v>8940.0</v>
       </c>
       <c r="J11" t="n">
-        <v>-2738</v>
+        <v>-2738.0</v>
       </c>
       <c r="K11" t="n">
-        <v>14922</v>
+        <v>14922.0</v>
       </c>
       <c r="L11" t="n">
-        <v>12499</v>
+        <v>12499.0</v>
       </c>
       <c r="M11" t="n">
-        <v>3465</v>
+        <v>3465.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3466</v>
+        <v>3466.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1377</v>
+        <v>1377.0</v>
       </c>
       <c r="P11" t="n">
-        <v>3616</v>
+        <v>3616.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3399</v>
+        <v>3399.0</v>
       </c>
       <c r="R11" t="n">
-        <v>7793</v>
+        <v>7793.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3234</v>
+        <v>3234.0</v>
       </c>
       <c r="T11" t="n">
-        <v>-24347</v>
+        <v>-24347.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1751</v>
+        <v>1751.0</v>
       </c>
       <c r="V11" t="n">
-        <v>7647</v>
+        <v>7647.0</v>
       </c>
       <c r="W11" t="n">
-        <v>6082</v>
+        <v>6082.0</v>
       </c>
       <c r="X11" t="n">
-        <v>2098</v>
+        <v>2098.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>14851</v>
+        <v>14851.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>6549</v>
+        <v>6549.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>10272</v>
+        <v>10272.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>16579</v>
+        <v>16579.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>3706</v>
+        <v>3706.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>9398</v>
+        <v>9398.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>5036</v>
+        <v>5036.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>3534</v>
+        <v>3534.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>11795</v>
+        <v>11795.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>5891</v>
+        <v>5891.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>3285</v>
+        <v>3285.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1921</v>
+        <v>1921.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>16190</v>
+        <v>16190.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>7573</v>
+        <v>7573.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>39663</v>
+        <v>39663.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>20026</v>
+        <v>20026.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>92163</v>
+        <v>92163.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>26739</v>
+        <v>26739.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>243862</v>
+        <v>243862.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>49827</v>
+        <v>49827.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2199</v>
+        <v>2199.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1860</v>
+        <v>1860.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>23368</v>
+        <v>23368.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>4546</v>
+        <v>4546.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>33209</v>
+        <v>33209.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1840</v>
+        <v>1840.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>7141</v>
+        <v>7141.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41740</v>
+        <v>41740.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>27101</v>
+        <v>27101.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>181677</v>
+        <v>181677.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>452813</v>
+        <v>452813.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>41212</v>
+        <v>41212.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>12865</v>
+        <v>12865.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>13037</v>
+        <v>13037.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>20356</v>
+        <v>20356.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>43524</v>
+        <v>43524.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>2825</v>
+        <v>2825.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>63266</v>
+        <v>63266.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>9940</v>
+        <v>9940.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>732</v>
+        <v>732.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>4873</v>
+        <v>4873.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>33069</v>
+        <v>33069.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>3444</v>
+        <v>3444.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>7649</v>
+        <v>7649.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>1090</v>
+        <v>1090.0</v>
       </c>
       <c r="C12" t="n">
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="E12" t="n">
-        <v>165</v>
+        <v>165.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1319</v>
+        <v>1319.0</v>
       </c>
       <c r="G12" t="n">
-        <v>450</v>
+        <v>450.0</v>
       </c>
       <c r="H12" t="n">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1598</v>
+        <v>1598.0</v>
       </c>
       <c r="J12" t="n">
-        <v>603</v>
+        <v>603.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1838</v>
+        <v>1838.0</v>
       </c>
       <c r="L12" t="n">
-        <v>670</v>
+        <v>670.0</v>
       </c>
       <c r="M12" t="n">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="N12" t="n">
-        <v>413</v>
+        <v>413.0</v>
       </c>
       <c r="O12" t="n">
-        <v>551</v>
+        <v>551.0</v>
       </c>
       <c r="P12" t="n">
-        <v>391</v>
+        <v>391.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>281</v>
+        <v>281.0</v>
       </c>
       <c r="R12" t="n">
-        <v>555</v>
+        <v>555.0</v>
       </c>
       <c r="S12" t="n">
-        <v>243</v>
+        <v>243.0</v>
       </c>
       <c r="T12" t="n">
-        <v>936</v>
+        <v>936.0</v>
       </c>
       <c r="U12" t="n">
-        <v>296</v>
+        <v>296.0</v>
       </c>
       <c r="V12" t="n">
-        <v>824</v>
+        <v>824.0</v>
       </c>
       <c r="W12" t="n">
-        <v>479</v>
+        <v>479.0</v>
       </c>
       <c r="X12" t="n">
-        <v>294</v>
+        <v>294.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>459</v>
+        <v>459.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>902</v>
+        <v>902.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>816</v>
+        <v>816.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>754</v>
+        <v>754.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>357</v>
+        <v>357.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>919</v>
+        <v>919.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>819</v>
+        <v>819.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>624</v>
+        <v>624.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1238</v>
+        <v>1238.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1205</v>
+        <v>1205.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>803</v>
+        <v>803.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>444</v>
+        <v>444.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>586</v>
+        <v>586.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>371</v>
+        <v>371.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1656</v>
+        <v>1656.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>593</v>
+        <v>593.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>4177</v>
+        <v>4177.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1158</v>
+        <v>1158.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8858</v>
+        <v>8858.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>2647</v>
+        <v>2647.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>334</v>
+        <v>334.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>526</v>
+        <v>526.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1493</v>
+        <v>1493.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>303</v>
+        <v>303.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1244</v>
+        <v>1244.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>235</v>
+        <v>235.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>1498</v>
+        <v>1498.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4323</v>
+        <v>4323.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1350</v>
+        <v>1350.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>6293</v>
+        <v>6293.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>306</v>
+        <v>306.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1681</v>
+        <v>1681.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>708</v>
+        <v>708.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>344</v>
+        <v>344.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>430</v>
+        <v>430.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>2366</v>
+        <v>2366.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>806</v>
+        <v>806.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>1840</v>
+        <v>1840.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1868</v>
+        <v>1868.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>220</v>
+        <v>220.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>978</v>
+        <v>978.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-8647</v>
+        <v>-8647.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-135</v>
+        <v>-135.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-34</v>
+        <v>-34.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-73</v>
+        <v>-73.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>-29</v>
+        <v>-29.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-97</v>
+        <v>-97.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-136</v>
+        <v>-136.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-126</v>
+        <v>-126.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-38</v>
+        <v>-38.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-37</v>
+        <v>-37.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-95</v>
+        <v>-95.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-179</v>
+        <v>-179.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-159</v>
+        <v>-159.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-36</v>
+        <v>-36.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-143</v>
+        <v>-143.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-118</v>
+        <v>-118.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-64</v>
+        <v>-64.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-33</v>
+        <v>-33.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-79</v>
+        <v>-79.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-88</v>
+        <v>-88.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-232</v>
+        <v>-232.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-262</v>
+        <v>-262.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-214</v>
+        <v>-214.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-60</v>
+        <v>-60.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-34</v>
+        <v>-34.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-648</v>
+        <v>-648.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-37</v>
+        <v>-37.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-434</v>
+        <v>-434.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-34</v>
+        <v>-34.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1104</v>
+        <v>-1104.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1945</v>
+        <v>-1945.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-58</v>
+        <v>-58.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-76</v>
+        <v>-76.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-516</v>
+        <v>-516.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-185</v>
+        <v>-185.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>-58</v>
+        <v>-58.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-29</v>
+        <v>-29.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>278711</v>
+        <v>278711.0</v>
       </c>
       <c r="C14" t="n">
-        <v>125218</v>
+        <v>125218.0</v>
       </c>
       <c r="D14" t="n">
-        <v>31135</v>
+        <v>31135.0</v>
       </c>
       <c r="E14" t="n">
-        <v>19479</v>
+        <v>19479.0</v>
       </c>
       <c r="F14" t="n">
-        <v>216706</v>
+        <v>216706.0</v>
       </c>
       <c r="G14" t="n">
-        <v>70975</v>
+        <v>70975.0</v>
       </c>
       <c r="H14" t="n">
-        <v>11925</v>
+        <v>11925.0</v>
       </c>
       <c r="I14" t="n">
-        <v>235142</v>
+        <v>235142.0</v>
       </c>
       <c r="J14" t="n">
-        <v>48692</v>
+        <v>48692.0</v>
       </c>
       <c r="K14" t="n">
-        <v>237388</v>
+        <v>237388.0</v>
       </c>
       <c r="L14" t="n">
-        <v>71456</v>
+        <v>71456.0</v>
       </c>
       <c r="M14" t="n">
-        <v>15786</v>
+        <v>15786.0</v>
       </c>
       <c r="N14" t="n">
-        <v>48755</v>
+        <v>48755.0</v>
       </c>
       <c r="O14" t="n">
-        <v>62341</v>
+        <v>62341.0</v>
       </c>
       <c r="P14" t="n">
-        <v>41241</v>
+        <v>41241.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>28694</v>
+        <v>28694.0</v>
       </c>
       <c r="R14" t="n">
-        <v>72783</v>
+        <v>72783.0</v>
       </c>
       <c r="S14" t="n">
-        <v>20852</v>
+        <v>20852.0</v>
       </c>
       <c r="T14" t="n">
-        <v>364803</v>
+        <v>364803.0</v>
       </c>
       <c r="U14" t="n">
-        <v>35434</v>
+        <v>35434.0</v>
       </c>
       <c r="V14" t="n">
-        <v>135209</v>
+        <v>135209.0</v>
       </c>
       <c r="W14" t="n">
-        <v>65030</v>
+        <v>65030.0</v>
       </c>
       <c r="X14" t="n">
-        <v>38909</v>
+        <v>38909.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>56561</v>
+        <v>56561.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>102769</v>
+        <v>102769.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>94114</v>
+        <v>94114.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>108146</v>
+        <v>108146.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>51102</v>
+        <v>51102.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>95125</v>
+        <v>95125.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>90532</v>
+        <v>90532.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>71474</v>
+        <v>71474.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>135525</v>
+        <v>135525.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>172624</v>
+        <v>172624.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>80245</v>
+        <v>80245.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48758</v>
+        <v>48758.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>71259</v>
+        <v>71259.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>59450</v>
+        <v>59450.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>211363</v>
+        <v>211363.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>60661</v>
+        <v>60661.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>662329</v>
+        <v>662329.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>149926</v>
+        <v>149926.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>913319</v>
+        <v>913319.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>323975</v>
+        <v>323975.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>17453</v>
+        <v>17453.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>37736</v>
+        <v>37736.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>109823</v>
+        <v>109823.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>24494</v>
+        <v>24494.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>219910</v>
+        <v>219910.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>22379</v>
+        <v>22379.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>43383</v>
+        <v>43383.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>162308</v>
+        <v>162308.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>115472</v>
+        <v>115472.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>505894</v>
+        <v>505894.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>505800</v>
+        <v>505800.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>174311</v>
+        <v>174311.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>72807</v>
+        <v>72807.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>90927</v>
+        <v>90927.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>47146</v>
+        <v>47146.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>198781</v>
+        <v>198781.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>37700</v>
+        <v>37700.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>675619</v>
+        <v>675619.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>283767</v>
+        <v>283767.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>99725</v>
+        <v>99725.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>166924</v>
+        <v>166924.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>202015</v>
+        <v>202015.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>35052</v>
+        <v>35052.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>144093</v>
+        <v>144093.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>58164</v>
+        <v>58164.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6447599</v>
+        <v>6447599.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6780179</v>
+        <v>6780179.0</v>
       </c>
       <c r="D15" t="n">
-        <v>941970</v>
+        <v>941970.0</v>
       </c>
       <c r="E15" t="n">
-        <v>143339</v>
+        <v>143339.0</v>
       </c>
       <c r="F15" t="n">
-        <v>72548</v>
+        <v>72548.0</v>
       </c>
       <c r="G15" t="n">
-        <v>51415</v>
+        <v>51415.0</v>
       </c>
       <c r="H15" t="n">
-        <v>34662</v>
+        <v>34662.0</v>
       </c>
       <c r="I15" t="n">
-        <v>722136</v>
+        <v>722136.0</v>
       </c>
       <c r="J15" t="n">
-        <v>201484</v>
+        <v>201484.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1239362</v>
+        <v>1239362.0</v>
       </c>
       <c r="L15" t="n">
-        <v>172943</v>
+        <v>172943.0</v>
       </c>
       <c r="M15" t="n">
-        <v>18614</v>
+        <v>18614.0</v>
       </c>
       <c r="N15" t="n">
-        <v>673039</v>
+        <v>673039.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1787108</v>
+        <v>1787108.0</v>
       </c>
       <c r="P15" t="n">
-        <v>529425</v>
+        <v>529425.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>437776</v>
+        <v>437776.0</v>
       </c>
       <c r="R15" t="n">
-        <v>205594</v>
+        <v>205594.0</v>
       </c>
       <c r="S15" t="n">
-        <v>200709</v>
+        <v>200709.0</v>
       </c>
       <c r="T15" t="n">
-        <v>25674</v>
+        <v>25674.0</v>
       </c>
       <c r="U15" t="n">
-        <v>97661</v>
+        <v>97661.0</v>
       </c>
       <c r="V15" t="n">
-        <v>103443</v>
+        <v>103443.0</v>
       </c>
       <c r="W15" t="n">
-        <v>95022</v>
+        <v>95022.0</v>
       </c>
       <c r="X15" t="n">
-        <v>155090</v>
+        <v>155090.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>109176</v>
+        <v>109176.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>494858</v>
+        <v>494858.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>699383</v>
+        <v>699383.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>141851</v>
+        <v>141851.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>112563</v>
+        <v>112563.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>801169</v>
+        <v>801169.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>171977</v>
+        <v>171977.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>257976</v>
+        <v>257976.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>478536</v>
+        <v>478536.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>200208</v>
+        <v>200208.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>310597</v>
+        <v>310597.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>134331</v>
+        <v>134331.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>791308</v>
+        <v>791308.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>546816</v>
+        <v>546816.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>157329</v>
+        <v>157329.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>527566</v>
+        <v>527566.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>9149114</v>
+        <v>9149114.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2959403</v>
+        <v>2959403.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16404375</v>
+        <v>1.6404375E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>3775762</v>
+        <v>3775762.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>67705</v>
+        <v>67705.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>68128</v>
+        <v>68128.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>831043</v>
+        <v>831043.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>458159</v>
+        <v>458159.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>4909809</v>
+        <v>4909809.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>168995</v>
+        <v>168995.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>177371</v>
+        <v>177371.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>251157</v>
+        <v>251157.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>798074</v>
+        <v>798074.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1219612</v>
+        <v>1219612.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>404926</v>
+        <v>404926.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1661028</v>
+        <v>1661028.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>660662</v>
+        <v>660662.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>522585</v>
+        <v>522585.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>356527</v>
+        <v>356527.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>4164450</v>
+        <v>4164450.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>861383</v>
+        <v>861383.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5249840</v>
+        <v>5249840.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>4384442</v>
+        <v>4384442.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2451485</v>
+        <v>2451485.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1780378</v>
+        <v>1780378.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>2801782</v>
+        <v>2801782.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>1034540</v>
+        <v>1034540.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>4224880</v>
+        <v>4224880.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6602627</v>
+        <v>6602627.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>